--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -5,25 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\144\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD20D61-B355-4576-99E7-4290378265BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B22450-8150-46B6-AD38-906E82D4565A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1080" windowWidth="20220" windowHeight="11256" activeTab="3" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17916" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
   <sheets>
-    <sheet name="Constant Change" sheetId="3" r:id="rId1"/>
-    <sheet name="Constant Percent Change" sheetId="4" r:id="rId2"/>
-    <sheet name="Puzzle 1" sheetId="5" r:id="rId3"/>
-    <sheet name="Puzzle 2" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Constant Change" sheetId="1" r:id="rId1"/>
+    <sheet name="Constant Percent Change" sheetId="2" r:id="rId2"/>
+    <sheet name="Puzzle 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Puzzle 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$12:$D$33</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$12:$D$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" mergeInterval="0" personalView="1" xWindow="32" yWindow="32" windowWidth="1493" windowHeight="938" activeSheetId="1" showComments="commIndAndComment"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
   <si>
     <t>Period</t>
   </si>
@@ -390,6 +392,12 @@
   </si>
   <si>
     <t>What will the populaton be at 12 years?</t>
+  </si>
+  <si>
+    <t>How many periods are in 9 years?</t>
+  </si>
+  <si>
+    <t>How many periods per year?</t>
   </si>
 </sst>
 </file>
@@ -923,9 +931,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -936,13 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -950,35 +950,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1003,6 +974,129 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1012,10 +1106,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1024,157 +1138,92 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,7 +1248,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1828,8 +1877,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4038600" y="3109546"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4035083" y="3129475"/>
+              <a:ext cx="4572000" cy="2760785"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1860,6 +1909,28 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1F98439F-7A1A-4A0A-9BF7-A96BE5B21411}">
+  <header guid="{1F98439F-7A1A-4A0A-9BF7-A96BE5B21411}" dateTime="2020-10-02T11:14:57" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="5">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2161,7 +2232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510FEE2-CD01-4CA1-A488-F59DAFBFCB6B}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -2173,532 +2244,532 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="91" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="94"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="65" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="67"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>0</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="10">
         <f ca="1">MOD(Sheet2!B12,1000)+1000</f>
         <v>1664</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="15"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="11">
         <f ca="1">C8+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>1585.29</v>
       </c>
-      <c r="D9" s="23">
-        <f ca="1">C9-C8</f>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D18" ca="1" si="0">C9-C8</f>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E9" s="10">
-        <f ca="1">C9/C8-1</f>
+      <c r="E9" s="6">
+        <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>-4.7301682692307723E-2</v>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="F9" s="63" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;D9</f>
         <v>Q₁ = Q₀ + -78.71</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="18" t="str">
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="48" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(-4.73%) = Q₀∙(1 + -4.73%)</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="5"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="11">
         <f ca="1">C9+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>1506.58</v>
       </c>
-      <c r="D10" s="23">
-        <f ca="1">C10-C9</f>
+      <c r="D10" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E10" s="10">
-        <f ca="1">C10/C9-1</f>
+      <c r="E10" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-4.9650221725993426E-2</v>
       </c>
-      <c r="F10" s="12" t="str">
-        <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;D10&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;D10&amp;")"</f>
+      <c r="F10" s="63" t="str">
+        <f t="shared" ref="F10:F18" ca="1" si="2">B10&amp;" = "&amp;B9&amp;" + "&amp;D10&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;D10&amp;")"</f>
         <v>Q₂ = Q₁ + -78.71 = Q₀ + 2∙(-78.71)</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="18" t="str">
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="48" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(-4.97%) = Q₁∙(1 + -4.97%)</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="2"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="11">
         <f ca="1">C10+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>1427.87</v>
       </c>
-      <c r="D11" s="23">
-        <f ca="1">C11-C10</f>
+      <c r="D11" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E11" s="10">
-        <f ca="1">C11/C10-1</f>
+      <c r="E11" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.224415563727125E-2</v>
       </c>
-      <c r="F11" s="12" t="str">
-        <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;D11&amp;" = "&amp;B$8&amp;" + "&amp;A11&amp;"∙("&amp;D11&amp;")"</f>
+      <c r="F11" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₃ = Q₂ + -78.71 = Q₀ + 3∙(-78.71)</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="18" t="str">
-        <f t="shared" ref="I11:I18" ca="1" si="0">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="48" t="str">
+        <f t="shared" ref="I11:I17" ca="1" si="3">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(-5.22%) = Q₂∙(1 + -5.22%)</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="2"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="11">
         <f ca="1">C11+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>1349.1599999999999</v>
       </c>
-      <c r="D12" s="23">
-        <f ca="1">C12-C11</f>
+      <c r="D12" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E12" s="10">
-        <f ca="1">C12/C11-1</f>
+      <c r="E12" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.5124065916364984E-2</v>
       </c>
-      <c r="F12" s="12" t="str">
-        <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;D12&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;D12&amp;")"</f>
+      <c r="F12" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + -78.71 = Q₀ + 4∙(-78.71)</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="48" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Q₄ = Q₃ + Q₃∙(-5.51%) = Q₃∙(1 + -5.51%)</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="2"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="11">
         <f ca="1">C12+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>1270.4499999999998</v>
       </c>
-      <c r="D13" s="23">
-        <f ca="1">C13-C12</f>
+      <c r="D13" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E13" s="10">
-        <f ca="1">C13/C12-1</f>
+      <c r="E13" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-5.8340004150730818E-2</v>
       </c>
-      <c r="F13" s="12" t="str">
-        <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;D13&amp;" = "&amp;B$8&amp;" + "&amp;A13&amp;"∙("&amp;D13&amp;")"</f>
+      <c r="F13" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + -78.71 = Q₀ + 5∙(-78.71)</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="48" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + Q₄∙(-5.83%) = Q₄∙(1 + -5.83%)</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="2"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="11">
         <f ca="1">C13+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>1191.7399999999998</v>
       </c>
-      <c r="D14" s="23">
-        <f ca="1">C14-C13</f>
+      <c r="D14" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E14" s="10">
-        <f ca="1">C14/C13-1</f>
+      <c r="E14" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.1954425597229412E-2</v>
       </c>
-      <c r="F14" s="12" t="str">
-        <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;D14&amp;" = "&amp;B$8&amp;" + "&amp;A14&amp;"∙("&amp;D14&amp;")"</f>
+      <c r="F14" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + -78.71 = Q₀ + 6∙(-78.71)</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="48" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + Q₅∙(-6.2%) = Q₅∙(1 + -6.2%)</v>
       </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="2"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="11">
         <f ca="1">C14+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>1113.0299999999997</v>
       </c>
-      <c r="D15" s="23">
-        <f ca="1">C15-C14</f>
+      <c r="D15" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E15" s="10">
-        <f ca="1">C15/C14-1</f>
+      <c r="E15" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-6.6046285263564264E-2</v>
       </c>
-      <c r="F15" s="12" t="str">
-        <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;D15&amp;" = "&amp;B$8&amp;" + "&amp;A15&amp;"∙("&amp;D15&amp;")"</f>
+      <c r="F15" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + -78.71 = Q₀ + 7∙(-78.71)</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="48" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + Q₆∙(-6.6%) = Q₆∙(1 + -6.6%)</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="2"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="11">
         <f ca="1">C15+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>1034.3199999999997</v>
       </c>
-      <c r="D16" s="23">
-        <f ca="1">C16-C15</f>
+      <c r="D16" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E16" s="10">
-        <f ca="1">C16/C15-1</f>
+      <c r="E16" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.0716871962121508E-2</v>
       </c>
-      <c r="F16" s="12" t="str">
-        <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;D16&amp;" = "&amp;B$8&amp;" + "&amp;A16&amp;"∙("&amp;D16&amp;")"</f>
+      <c r="F16" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + -78.71 = Q₀ + 8∙(-78.71)</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="48" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + Q₇∙(-7.07%) = Q₇∙(1 + -7.07%)</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="2"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>9</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="11">
         <f ca="1">C16+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>955.60999999999967</v>
       </c>
-      <c r="D17" s="23">
-        <f ca="1">C17-C16</f>
+      <c r="D17" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E17" s="10">
-        <f ca="1">C17/C16-1</f>
+      <c r="E17" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.6098306133498439E-2</v>
       </c>
-      <c r="F17" s="12" t="str">
-        <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;D17&amp;" = "&amp;B$8&amp;" + "&amp;A17&amp;"∙("&amp;D17&amp;")"</f>
+      <c r="F17" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + -78.71 = Q₀ + 9∙(-78.71)</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="18" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="48" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + Q₈∙(-7.61%) = Q₈∙(1 + -7.61%)</v>
       </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="2"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="11">
         <f ca="1">C17+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
         <v>876.89999999999964</v>
       </c>
-      <c r="D18" s="23">
-        <f ca="1">C18-C17</f>
+      <c r="D18" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E18" s="10">
-        <f ca="1">C18/C17-1</f>
+      <c r="E18" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-8.2366237272527565E-2</v>
       </c>
-      <c r="F18" s="12" t="str">
-        <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;D18&amp;" = "&amp;B$8&amp;" + "&amp;A18&amp;"∙("&amp;D18&amp;")"</f>
+      <c r="F18" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + -78.71 = Q₀ + 10∙(-78.71)</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="18" t="str">
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="48" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(-8.24%) = Q₉∙(1 + -8.24%)</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="2"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="14" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="15"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14">
         <f ca="1">D18</f>
         <v>-78.710000000000036</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="31" t="str">
+      <c r="F20" s="57" t="str">
         <f ca="1">B20&amp;" = "&amp;B18&amp;" + "&amp;D20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;D20&amp;")"</f>
         <v>Qₙ = Q₁₀ + -78.71 = Q₀ + n∙(-78.71)</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="20" t="s">
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="56"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
+      <selection activeCell="N8" sqref="N8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="33">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -2710,17 +2781,24 @@
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2741,524 +2819,527 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="67"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="56" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="44"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="95" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="65" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="67"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="9">
+      <c r="A8" s="5">
         <v>0</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="10">
         <f ca="1">MOD(Sheet2!B12,1000)+1000</f>
         <v>1664</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="15"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="9">
+      <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="11">
         <f ca="1">C8*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1650.9043199999999</v>
       </c>
-      <c r="D9" s="23">
-        <f ca="1">C9-C8</f>
+      <c r="D9" s="8">
+        <f t="shared" ref="D9:D18" ca="1" si="0">C9-C8</f>
         <v>-13.095680000000129</v>
       </c>
-      <c r="E9" s="10">
-        <f ca="1">C9/C8-1</f>
+      <c r="E9" s="6">
+        <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F9" s="12" t="str">
+      <c r="F9" s="63" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + -13.1</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="12" t="str">
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="63" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(-0.79%) = Q₀∙(1 + -0.79%)</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="13"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="65"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="9">
+      <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="11">
         <f ca="1">C9*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1637.9117030015998</v>
       </c>
-      <c r="D10" s="23">
-        <f ca="1">C10-C9</f>
+      <c r="D10" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.992616998400081</v>
       </c>
-      <c r="E10" s="10">
-        <f ca="1">C10/C9-1</f>
+      <c r="E10" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F10" s="12" t="str">
+      <c r="F10" s="63" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + -12.99</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="12" t="str">
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="63" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(-0.79%) = Q₁∙(1 + -0.79%) = Q₀∙(1 + -0.79%)²</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="13"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="65"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="9">
+      <c r="A11" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="11">
         <f ca="1">C10*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1625.0213378989772</v>
       </c>
-      <c r="D11" s="23">
-        <f ca="1">C11-C10</f>
+      <c r="D11" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.890365102622582</v>
       </c>
-      <c r="E11" s="10">
-        <f ca="1">C11/C10-1</f>
+      <c r="E11" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F11" s="12" t="str">
-        <f t="shared" ref="F11:F18" ca="1" si="0">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
+      <c r="F11" s="63" t="str">
+        <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + -12.89</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="12" t="str">
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="63" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(-0.79%) = Q₂∙(1 + -0.79%) = Q₀∙(1 + -0.79%)³</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="13"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="65"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="9">
+      <c r="A12" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="11">
         <f ca="1">C11*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1612.2324199697123</v>
       </c>
-      <c r="D12" s="23">
-        <f ca="1">C12-C11</f>
+      <c r="D12" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.788917929264926</v>
       </c>
-      <c r="E12" s="10">
-        <f ca="1">C12/C11-1</f>
+      <c r="E12" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8699999999999326E-3</v>
       </c>
-      <c r="F12" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F12" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + -12.79</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="12" t="str">
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="63" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(-0.79%) = Q₃∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁴</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="13"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="9">
+      <c r="A13" s="5">
         <v>5</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="11">
         <f ca="1">C12*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1599.5441508245506</v>
       </c>
-      <c r="D13" s="23">
-        <f ca="1">C13-C12</f>
+      <c r="D13" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.688269145161712</v>
       </c>
-      <c r="E13" s="10">
-        <f ca="1">C13/C12-1</f>
+      <c r="E13" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F13" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F13" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + -12.69</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="12" t="str">
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="63" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(-0.79%) = Q₄∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁵</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="13"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="65"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="5">
         <v>6</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="11">
         <f ca="1">C13*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1586.9557383575614</v>
       </c>
-      <c r="D14" s="23">
-        <f ca="1">C14-C13</f>
+      <c r="D14" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.588412466989212</v>
       </c>
-      <c r="E14" s="10">
-        <f ca="1">C14/C13-1</f>
+      <c r="E14" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F14" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F14" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + -12.59</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="12" t="str">
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="63" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(-0.79%) = Q₅∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁶</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="13"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="5">
         <v>7</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="11">
         <f ca="1">C14*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1574.4663966966873</v>
       </c>
-      <c r="D15" s="23">
-        <f ca="1">C15-C14</f>
+      <c r="D15" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.489341660874061</v>
       </c>
-      <c r="E15" s="10">
-        <f ca="1">C15/C14-1</f>
+      <c r="E15" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F15" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F15" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + -12.49</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="12" t="str">
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="63" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(-0.79%) = Q₆∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁷</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="13"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="11">
         <f ca="1">C15*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1562.0753461546842</v>
       </c>
-      <c r="D16" s="23">
-        <f ca="1">C16-C15</f>
+      <c r="D16" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.391050542003086</v>
       </c>
-      <c r="E16" s="10">
-        <f ca="1">C16/C15-1</f>
+      <c r="E16" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000001546E-3</v>
       </c>
-      <c r="F16" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F16" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + -12.39</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="12" t="str">
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="63" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(-0.79%) = Q₇∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁸</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="13"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="65"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="5">
         <v>9</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="11">
         <f ca="1">C16*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1549.7818131804468</v>
       </c>
-      <c r="D17" s="23">
-        <f ca="1">C17-C16</f>
+      <c r="D17" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.293532974237451</v>
       </c>
-      <c r="E17" s="10">
-        <f ca="1">C17/C16-1</f>
+      <c r="E17" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F17" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F17" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + -12.29</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="12" t="str">
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="63" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(-0.79%) = Q₈∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁹</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="13"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="65"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="11">
         <f ca="1">C17*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
         <v>1537.5850303107165</v>
       </c>
-      <c r="D18" s="23">
-        <f ca="1">C18-C17</f>
+      <c r="D18" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>-12.196782869730214</v>
       </c>
-      <c r="E18" s="10">
-        <f ca="1">C18/C17-1</f>
+      <c r="E18" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F18" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F18" s="63" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + -12.2</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="12" t="str">
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="63" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(-0.79%) = Q₉∙(1 + -0.79%) = Q₀∙(1 + -0.79%)¹⁰</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="13"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="65"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="12" t="s">
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="13"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="65"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="15">
         <f ca="1">E18</f>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" s="66" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="31" t="str">
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="57" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + -0.79%)ⁿ</v>
       </c>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
+      <selection activeCell="P14" sqref="P14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="32">
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
@@ -3275,18 +3356,22 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:M8"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I15:M15"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3294,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF79418-C12E-441C-955A-4392F0CF155C}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3308,318 +3393,334 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
+      <c r="K1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="52"/>
-      <c r="K2" s="38" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="K2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="52"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="K3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="K4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="K5" s="43" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="K5" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="34" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="2">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="90">
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1968</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="78" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="68"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B8*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B8+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1884.11015625</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="79" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="87"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B9*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B9+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1803.796280937195</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B10*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B10+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1726.9059414226358</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="F11" s="56" t="s">
+      <c r="C11" s="82"/>
+      <c r="D11" s="83"/>
+      <c r="F11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="80" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="77"/>
+      <c r="L11" s="88"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1653.2932028063292</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1582.8183509484227</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1515.3476272971545</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1450.7529750202789</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="F15" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="69"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="F15" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1388.9117959581351</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="F16" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="70"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="F16" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="87"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1329.7067179370681</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="82"/>
+      <c r="D17" s="83"/>
+      <c r="F17" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="87"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1273.0253720015671</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="82"/>
+      <c r="D18" s="83"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1218.7601791423206</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1">
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="91">
         <f ca="1">IF(Sheet2!C$28=0,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1166.8081461154043</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="90"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <sheetProtection algorithmName="SHA-512" hashValue="O2b2f12hu9GbMVRc8uXtvwXo2uQ4958eJs9z12i7o7GtEARBZeqOJWrKj/Bywzx5lPCIzJgJSKHUU/pB9yot4A==" saltValue="c+TlGDxZ83K4bi0QRjtXjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <customSheetViews>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" topLeftCell="A3">
+      <selection activeCell="B15" sqref="B15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="7">
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F15:J15"/>
     <mergeCell ref="A1:I4"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="F11:J13"/>
+    <mergeCell ref="F15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3629,8 +3730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77757405-FFA4-43AF-9C54-9F380FA82D70}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3644,319 +3745,335 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="72"/>
+      <c r="K1" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="69"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="52"/>
-      <c r="K2" s="38" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="K2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="52"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="75"/>
+      <c r="K3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="K4" s="42" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="78"/>
+      <c r="K4" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="K5" s="43" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="K5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="21" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="34" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="3">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
+      <c r="A8" s="2">
         <v>0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="90">
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1968</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="78" t="s">
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="68"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B8*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B8+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1935.767333984375</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="79" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="93"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="87"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B9*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B9+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1903.53466796875</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B10*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B10+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1871.302001953125</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="56" t="s">
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="79" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="77"/>
+      <c r="L11" s="88"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1839.0693359375</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1806.836669921875</v>
       </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="74"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="64"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1774.60400390625</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="74"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1742.371337890625</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="F15" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="69"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="F15" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="89"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1710.138671875</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="F16" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="70"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="F16" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="87"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1677.906005859375</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="F17" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="87"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1645.67333984375</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1613.440673828125</v>
       </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1">
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="91">
         <f ca="1">IF(Sheet2!C$28=1,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1581.2080078125</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <sheetProtection algorithmName="SHA-512" hashValue="zEE49A1yC0poK+71DzkbMrZBn4Ndz0/qO3KGozkWE4zqR1LZYHoy2cxuslweNYy44RDEfdgRoVAk6N8gDpTZIw==" saltValue="7y0jrQm2SdyHIuab7TZRFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <customSheetViews>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" topLeftCell="A3">
+      <selection activeCell="L17" sqref="L17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="7">
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F15:J15"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
     <mergeCell ref="A1:I4"/>
     <mergeCell ref="F8:J9"/>
     <mergeCell ref="F11:J13"/>
-    <mergeCell ref="F16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4322,11 +4439,11 @@
         <v>15</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="1">MOD((B7-C7)/16,16)</f>
+        <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
         <v>6</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E11" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
+        <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
         <v>839</v>
       </c>
       <c r="G7">
@@ -4739,20 +4856,20 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="4">
-        <f ca="1">MOD(B12*F$11+F$12,F$13)</f>
+      <c r="B13" s="3">
+        <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
         <v>10777</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C33" ca="1" si="3">IF(D13&lt;0.5,0,1)</f>
+        <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="D13:D33" ca="1" si="4">B13/F$13</f>
+        <f t="shared" ref="D13:D33" ca="1" si="5">B13/F$13</f>
         <v>0.328887939453125</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E33" ca="1" si="5">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
+        <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
         <v>1</v>
       </c>
       <c r="F13">
@@ -4814,20 +4931,20 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4">
-        <f ca="1">MOD(B13*F$11+F$12,F$13)</f>
+      <c r="B14" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>15070</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.45989990234375</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="G14">
@@ -4886,20 +5003,20 @@
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
-        <f ca="1">MOD(B14*F$11+F$12,F$13)</f>
+      <c r="B15" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>25791</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.787078857421875</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="G15">
@@ -4958,20 +5075,20 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="4">
-        <f ca="1">MOD(B15*F$11+F$12,F$13)</f>
+      <c r="B16" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>18316</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.5589599609375</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="G16">
@@ -5030,20 +5147,20 @@
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="4">
-        <f ca="1">MOD(B16*F$11+F$12,F$13)</f>
+      <c r="B17" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>20181</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.615875244140625</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="G17">
@@ -5102,20 +5219,20 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
-        <f ca="1">MOD(B17*F$11+F$12,F$13)</f>
+      <c r="B18" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>9962</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.30401611328125</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -5123,20 +5240,20 @@
       <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4">
-        <f ca="1">MOD(B18*F$11+F$12,F$13)</f>
+      <c r="B19" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>3547</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.108245849609375</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5144,20 +5261,20 @@
       <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="4">
-        <f ca="1">MOD(B19*F$11+F$12,F$13)</f>
+      <c r="B20" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>20600</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.628662109375</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -5165,20 +5282,20 @@
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="4">
-        <f ca="1">MOD(B20*F$11+F$12,F$13)</f>
+      <c r="B21" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>849</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2.5909423828125E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -5186,305 +5303,312 @@
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4">
-        <f ca="1">MOD(B21*F$11+F$12,F$13)</f>
+      <c r="B22" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>18358</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.56024169921875</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M22" s="4"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="4">
-        <f ca="1">MOD(B22*F$11+F$12,F$13)</f>
+      <c r="B23" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>11447</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.349334716796875</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M23" s="4"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="4">
-        <f ca="1">MOD(B23*F$11+F$12,F$13)</f>
+      <c r="B24" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>31780</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.9698486328125</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M24" s="4"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4">
-        <f ca="1">MOD(B24*F$11+F$12,F$13)</f>
+      <c r="B25" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>909</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2.7740478515625E-2</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M25" s="4"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="4">
-        <f ca="1">MOD(B25*F$11+F$12,F$13)</f>
+      <c r="B26" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>10562</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.32232666015625</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="4">
-        <f ca="1">MOD(B26*F$11+F$12,F$13)</f>
+      <c r="B27" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>23891</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.729095458984375</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M27" s="4"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="4">
-        <f ca="1">MOD(B27*F$11+F$12,F$13)</f>
+      <c r="B28" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>13968</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.42626953125</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M28" s="4"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="4">
-        <f ca="1">MOD(B28*F$11+F$12,F$13)</f>
+      <c r="B29" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>19337</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.590118408203125</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="4">
-        <f ca="1">MOD(B29*F$11+F$12,F$13)</f>
+      <c r="B30" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>6030</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.18402099609375</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M30" s="4"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="4">
-        <f ca="1">MOD(B30*F$11+F$12,F$13)</f>
+      <c r="B31" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>31663</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.966278076171875</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
-      <c r="M31" s="4"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="4">
-        <f ca="1">MOD(B31*F$11+F$12,F$13)</f>
+      <c r="B32" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>11196</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.3416748046875</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
-      <c r="M32" s="4"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="4">
-        <f ca="1">MOD(B32*F$11+F$12,F$13)</f>
+      <c r="B33" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>5957</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.181793212890625</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="M33" s="4"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="M34" s="4"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="M35" s="4"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="M36" s="4"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="M37" s="4"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13">
-      <c r="M38" s="4"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13">
-      <c r="M39" s="4"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13">
-      <c r="M40" s="4"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13">
-      <c r="M41" s="4"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13">
-      <c r="M42" s="4"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="M43" s="4"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13">
-      <c r="M44" s="4"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="M45" s="4"/>
+      <c r="M45" s="3"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" scale="130" state="hidden" topLeftCell="A21">
+      <selection activeCell="F35" sqref="A1:XFD1048576"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B22450-8150-46B6-AD38-906E82D4565A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{0859E40A-F2C1-40A8-8E16-B24CC8C11FEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17916" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>Period</t>
   </si>
@@ -315,9 +315,6 @@
     <t>So the model derived here is the same if we model a fixed relative growth rate (per period) or a fixed percentage change (per period). The period can be any fixed amount of time, e.g., year, day, hour, etc.</t>
   </si>
   <si>
-    <t>Period (month)</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -398,6 +395,12 @@
   </si>
   <si>
     <t>How many periods per year?</t>
+  </si>
+  <si>
+    <t>Period (quater)</t>
+  </si>
+  <si>
+    <t>Period (half year)</t>
   </si>
 </sst>
 </file>
@@ -1040,54 +1043,105 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,32 +1151,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1164,66 +1227,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1912,8 +1915,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1F98439F-7A1A-4A0A-9BF7-A96BE5B21411}">
-  <header guid="{1F98439F-7A1A-4A0A-9BF7-A96BE5B21411}" dateTime="2020-10-02T11:14:57" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{36522151-E36F-490C-A44F-B214BCF5DDBE}">
+  <header guid="{36522151-E36F-490C-A44F-B214BCF5DDBE}" dateTime="2020-10-06T16:26:22" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2244,98 +2247,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="38"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="60" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -2350,13 +2353,13 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5">
@@ -2377,19 +2380,19 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>-4.7301682692307723E-2</v>
       </c>
-      <c r="F9" s="63" t="str">
+      <c r="F9" s="58" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;D9</f>
         <v>Q₁ = Q₀ + -78.71</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="48" t="str">
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="67" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(-4.73%) = Q₀∙(1 + -4.73%)</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="50"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
@@ -2411,19 +2414,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-4.9650221725993426E-2</v>
       </c>
-      <c r="F10" s="63" t="str">
+      <c r="F10" s="58" t="str">
         <f t="shared" ref="F10:F18" ca="1" si="2">B10&amp;" = "&amp;B9&amp;" + "&amp;D10&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;D10&amp;")"</f>
         <v>Q₂ = Q₁ + -78.71 = Q₀ + 2∙(-78.71)</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="48" t="str">
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="67" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(-4.97%) = Q₁∙(1 + -4.97%)</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="50"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
@@ -2445,19 +2448,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.224415563727125E-2</v>
       </c>
-      <c r="F11" s="63" t="str">
+      <c r="F11" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₃ = Q₂ + -78.71 = Q₀ + 3∙(-78.71)</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="48" t="str">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="67" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="3">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(-5.22%) = Q₂∙(1 + -5.22%)</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="69"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
@@ -2479,19 +2482,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.5124065916364984E-2</v>
       </c>
-      <c r="F12" s="63" t="str">
+      <c r="F12" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + -78.71 = Q₀ + 4∙(-78.71)</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="48" t="str">
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="67" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₄ = Q₃ + Q₃∙(-5.51%) = Q₃∙(1 + -5.51%)</v>
       </c>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
@@ -2513,19 +2516,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.8340004150730818E-2</v>
       </c>
-      <c r="F13" s="63" t="str">
+      <c r="F13" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + -78.71 = Q₀ + 5∙(-78.71)</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="48" t="str">
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="67" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + Q₄∙(-5.83%) = Q₄∙(1 + -5.83%)</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
@@ -2547,19 +2550,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-6.1954425597229412E-2</v>
       </c>
-      <c r="F14" s="63" t="str">
+      <c r="F14" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + -78.71 = Q₀ + 6∙(-78.71)</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="48" t="str">
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="67" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + Q₅∙(-6.2%) = Q₅∙(1 + -6.2%)</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
@@ -2581,19 +2584,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-6.6046285263564264E-2</v>
       </c>
-      <c r="F15" s="63" t="str">
+      <c r="F15" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + -78.71 = Q₀ + 7∙(-78.71)</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="48" t="str">
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="67" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + Q₆∙(-6.6%) = Q₆∙(1 + -6.6%)</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="50"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
@@ -2615,19 +2618,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.0716871962121508E-2</v>
       </c>
-      <c r="F16" s="63" t="str">
+      <c r="F16" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + -78.71 = Q₀ + 8∙(-78.71)</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="48" t="str">
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="67" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + Q₇∙(-7.07%) = Q₇∙(1 + -7.07%)</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="50"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2649,19 +2652,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.6098306133498439E-2</v>
       </c>
-      <c r="F17" s="63" t="str">
+      <c r="F17" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + -78.71 = Q₀ + 9∙(-78.71)</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="48" t="str">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="67" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + Q₈∙(-7.61%) = Q₈∙(1 + -7.61%)</v>
       </c>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="50"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2683,19 +2686,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-8.2366237272527565E-2</v>
       </c>
-      <c r="F18" s="63" t="str">
+      <c r="F18" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + -78.71 = Q₀ + 10∙(-78.71)</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="48" t="str">
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="67" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(-8.24%) = Q₉∙(1 + -8.24%)</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -2714,17 +2717,17 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="51" t="s">
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="53"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -2741,18 +2744,18 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="57" t="str">
+      <c r="F20" s="64" t="str">
         <f ca="1">B20&amp;" = "&amp;B18&amp;" + "&amp;D20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;D20&amp;")"</f>
         <v>Qₙ = Q₁₀ + -78.71 = Q₀ + n∙(-78.71)</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="54" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="56"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2763,13 +2766,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -2786,16 +2789,16 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="E2:K4"/>
     <mergeCell ref="E5:K6"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2819,93 +2822,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="62"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="41"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" s="42"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="44"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="E4" s="45"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="47"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="47"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="60" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -2920,14 +2923,14 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5">
@@ -2948,20 +2951,20 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F9" s="63" t="str">
+      <c r="F9" s="58" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + -13.1</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="63" t="str">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="58" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(-0.79%) = Q₀∙(1 + -0.79%)</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="65"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5">
@@ -2982,20 +2985,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F10" s="63" t="str">
+      <c r="F10" s="58" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + -12.99</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="63" t="str">
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="58" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(-0.79%) = Q₁∙(1 + -0.79%) = Q₀∙(1 + -0.79%)²</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="65"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5">
@@ -3016,20 +3019,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F11" s="63" t="str">
+      <c r="F11" s="58" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + -12.89</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="63" t="str">
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="58" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(-0.79%) = Q₂∙(1 + -0.79%) = Q₀∙(1 + -0.79%)³</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5">
@@ -3050,20 +3053,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8699999999999326E-3</v>
       </c>
-      <c r="F12" s="63" t="str">
+      <c r="F12" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + -12.79</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="63" t="str">
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="58" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(-0.79%) = Q₃∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁴</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5">
@@ -3084,20 +3087,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F13" s="63" t="str">
+      <c r="F13" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + -12.69</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="63" t="str">
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="58" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(-0.79%) = Q₄∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁵</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="65"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
       <c r="A14" s="5">
@@ -3118,20 +3121,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F14" s="63" t="str">
+      <c r="F14" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + -12.59</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="63" t="str">
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="58" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(-0.79%) = Q₅∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁶</v>
       </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
       <c r="A15" s="5">
@@ -3152,20 +3155,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F15" s="63" t="str">
+      <c r="F15" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + -12.49</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="63" t="str">
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(-0.79%) = Q₆∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁷</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="65"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
       <c r="A16" s="5">
@@ -3186,20 +3189,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000001546E-3</v>
       </c>
-      <c r="F16" s="63" t="str">
+      <c r="F16" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + -12.39</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="63" t="str">
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="58" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(-0.79%) = Q₇∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁸</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="65"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3220,20 +3223,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F17" s="63" t="str">
+      <c r="F17" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + -12.29</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="63" t="str">
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="58" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(-0.79%) = Q₈∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁹</v>
       </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="60"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3254,20 +3257,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F18" s="63" t="str">
+      <c r="F18" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + -12.2</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="63" t="str">
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="58" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(-0.79%) = Q₉∙(1 + -0.79%) = Q₀∙(1 + -0.79%)¹⁰</v>
       </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="65"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="60"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3285,18 +3288,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="63" t="s">
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="65"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3313,20 +3316,20 @@
         <f ca="1">E18</f>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F20" s="66" t="str">
+      <c r="F20" s="85" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="57" t="str">
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="64" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + -0.79%)ⁿ</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="66"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3337,11 +3340,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="32">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="F19:H19"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="I11:M11"/>
@@ -3356,10 +3354,15 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="E2:K4"/>
     <mergeCell ref="E5:K6"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
     <mergeCell ref="I7:M7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="I8:M8"/>
@@ -3379,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF79418-C12E-441C-955A-4392F0CF155C}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3393,71 +3396,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
-      <c r="K1" s="68" t="s">
+      <c r="A1" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+      <c r="K1" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="88"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
+      <c r="K2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="K3" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="K4" s="22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
@@ -3470,246 +3473,246 @@
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="K6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="30" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="2">
         <v>0</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="47">
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1968</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="F8" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
       <c r="K8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="86"/>
+        <v>68</v>
+      </c>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B8*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B8+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1884.11015625</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="78"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="87"/>
+        <v>69</v>
+      </c>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B9*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B9+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1803.796280937195</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="83"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B10*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B10+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1726.9059414226358</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="83"/>
-      <c r="F11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="F11" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="88"/>
+        <v>70</v>
+      </c>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1653.2932028063292</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="83"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1582.8183509484227</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1515.3476272971545</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1450.7529750202789</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
-      <c r="F15" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="89"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="F15" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1388.9117959581351</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="F16" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="87"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="F16" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="91">
+      <c r="B17" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1329.7067179370681</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="83"/>
-      <c r="F17" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="87"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="F17" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" s="91">
+      <c r="B18" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1273.0253720015671</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1218.7601791423206</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="48">
         <f ca="1">IF(Sheet2!C$28=0,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1166.8081461154043</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O2b2f12hu9GbMVRc8uXtvwXo2uQ4958eJs9z12i7o7GtEARBZeqOJWrKj/Bywzx5lPCIzJgJSKHUU/pB9yot4A==" saltValue="c+TlGDxZ83K4bi0QRjtXjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jP9J5sGfDTzR6CiM3NnvmOZPmr+x/3azaxyg649qNPZ/Vgg7ahdSDFLsf7YYq1GQCrEzKmOolY7qDJIlDTb96g==" saltValue="3wJDxoCA/4uPvBF909r5Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" topLeftCell="A3">
-      <selection activeCell="B15" sqref="B15"/>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
+      <selection activeCell="A8" sqref="A8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3730,13 +3733,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77757405-FFA4-43AF-9C54-9F380FA82D70}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.88671875" customWidth="1"/>
     <col min="11" max="11" width="20.77734375" customWidth="1"/>
@@ -3745,71 +3748,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+      <c r="K1" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="72"/>
-      <c r="K1" s="68" t="s">
+      <c r="L1" s="88"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="94"/>
+      <c r="K2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="69"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="75"/>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="19" t="s">
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="K3" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="97"/>
+      <c r="K4" s="22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="78"/>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
@@ -3823,246 +3826,246 @@
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
       <c r="K5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="K6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>52</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="A8" s="2">
         <v>0</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="47">
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1968</v>
       </c>
-      <c r="F8" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="F8" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
       <c r="K8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="86"/>
+        <v>68</v>
+      </c>
+      <c r="L8" s="43"/>
     </row>
     <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B8*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B8+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1935.767333984375</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="93"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="78"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
       <c r="K9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="87"/>
+        <v>69</v>
+      </c>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B9*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B9+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1903.53466796875</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B10*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B10+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1871.302001953125</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="F11" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
       <c r="K11" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="L11" s="88"/>
+        <v>70</v>
+      </c>
+      <c r="L11" s="45"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1839.0693359375</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="44"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="91">
+      <c r="B13" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1806.836669921875</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1774.60400390625</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="91">
+      <c r="B15" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1742.371337890625</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="F15" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="89"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="F15" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="91">
+      <c r="B16" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1710.138671875</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="F16" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="87"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="F16" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="91">
+      <c r="B17" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1677.906005859375</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="F17" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="87"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="F17" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" s="91">
+      <c r="B18" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1645.67333984375</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1613.440673828125</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" s="91">
+      <c r="B20" s="48">
         <f ca="1">IF(Sheet2!C$28=1,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1581.2080078125</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zEE49A1yC0poK+71DzkbMrZBn4Ndz0/qO3KGozkWE4zqR1LZYHoy2cxuslweNYy44RDEfdgRoVAk6N8gDpTZIw==" saltValue="7y0jrQm2SdyHIuab7TZRFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bZL3VNoXVCPAuLyXlaDW0wYblX9sKHBL073IGPvlD03ZLKZbNObknGJixbDlAy5cAFhqdXhuKw3+RXleeCdXhQ==" saltValue="Uo3mXtEj56XVzu8RM/wl5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" topLeftCell="A3">
-      <selection activeCell="L17" sqref="L17"/>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
+      <selection activeCell="A8" sqref="A8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{0859E40A-F2C1-40A8-8E16-B24CC8C11FEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C315C11E-DD53-459E-B7CF-EFED6B7E2EA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17916" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
+    <workbookView xWindow="2988" yWindow="420" windowWidth="17916" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Change" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,9 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$12:$D$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" mergeInterval="0" personalView="1" xWindow="32" yWindow="32" windowWidth="1493" windowHeight="938" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" mergeInterval="0" personalView="1" xWindow="249" yWindow="35" windowWidth="1493" windowHeight="938" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1103,45 +1103,45 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1915,8 +1915,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{36522151-E36F-490C-A44F-B214BCF5DDBE}">
-  <header guid="{36522151-E36F-490C-A44F-B214BCF5DDBE}" dateTime="2020-10-06T16:26:22" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C7CFDBBC-4F2B-4D5B-9640-02436F2C9224}">
+  <header guid="{C7CFDBBC-4F2B-4D5B-9640-02436F2C9224}" dateTime="2020-10-12T16:00:44" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2247,11 +2247,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="34" t="s">
         <v>54</v>
       </c>
@@ -2318,27 +2318,27 @@
       <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="55" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -2380,19 +2380,19 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>-4.7301682692307723E-2</v>
       </c>
-      <c r="F9" s="58" t="str">
+      <c r="F9" s="67" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;D9</f>
         <v>Q₁ = Q₀ + -78.71</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="67" t="str">
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="55" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(-4.73%) = Q₀∙(1 + -4.73%)</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="69"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
@@ -2414,19 +2414,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-4.9650221725993426E-2</v>
       </c>
-      <c r="F10" s="58" t="str">
+      <c r="F10" s="67" t="str">
         <f t="shared" ref="F10:F18" ca="1" si="2">B10&amp;" = "&amp;B9&amp;" + "&amp;D10&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;D10&amp;")"</f>
         <v>Q₂ = Q₁ + -78.71 = Q₀ + 2∙(-78.71)</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="67" t="str">
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="55" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(-4.97%) = Q₁∙(1 + -4.97%)</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="69"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
@@ -2448,19 +2448,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.224415563727125E-2</v>
       </c>
-      <c r="F11" s="58" t="str">
+      <c r="F11" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₃ = Q₂ + -78.71 = Q₀ + 3∙(-78.71)</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="67" t="str">
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="55" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="3">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(-5.22%) = Q₂∙(1 + -5.22%)</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="69"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
@@ -2482,19 +2482,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.5124065916364984E-2</v>
       </c>
-      <c r="F12" s="58" t="str">
+      <c r="F12" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + -78.71 = Q₀ + 4∙(-78.71)</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="67" t="str">
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₄ = Q₃ + Q₃∙(-5.51%) = Q₃∙(1 + -5.51%)</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="69"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
@@ -2516,19 +2516,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.8340004150730818E-2</v>
       </c>
-      <c r="F13" s="58" t="str">
+      <c r="F13" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + -78.71 = Q₀ + 5∙(-78.71)</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="67" t="str">
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + Q₄∙(-5.83%) = Q₄∙(1 + -5.83%)</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="69"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
@@ -2550,19 +2550,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-6.1954425597229412E-2</v>
       </c>
-      <c r="F14" s="58" t="str">
+      <c r="F14" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + -78.71 = Q₀ + 6∙(-78.71)</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="67" t="str">
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + Q₅∙(-6.2%) = Q₅∙(1 + -6.2%)</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="69"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
@@ -2584,19 +2584,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-6.6046285263564264E-2</v>
       </c>
-      <c r="F15" s="58" t="str">
+      <c r="F15" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + -78.71 = Q₀ + 7∙(-78.71)</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="67" t="str">
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + Q₆∙(-6.6%) = Q₆∙(1 + -6.6%)</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="69"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
@@ -2618,19 +2618,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.0716871962121508E-2</v>
       </c>
-      <c r="F16" s="58" t="str">
+      <c r="F16" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + -78.71 = Q₀ + 8∙(-78.71)</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="67" t="str">
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + Q₇∙(-7.07%) = Q₇∙(1 + -7.07%)</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="69"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2652,19 +2652,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.6098306133498439E-2</v>
       </c>
-      <c r="F17" s="58" t="str">
+      <c r="F17" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + -78.71 = Q₀ + 9∙(-78.71)</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="67" t="str">
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="55" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + Q₈∙(-7.61%) = Q₈∙(1 + -7.61%)</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="69"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2686,19 +2686,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-8.2366237272527565E-2</v>
       </c>
-      <c r="F18" s="58" t="str">
+      <c r="F18" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + -78.71 = Q₀ + 10∙(-78.71)</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="67" t="str">
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="55" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(-8.24%) = Q₉∙(1 + -8.24%)</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="69"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -2744,12 +2744,12 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="64" t="str">
+      <c r="F20" s="58" t="str">
         <f ca="1">B20&amp;" = "&amp;B18&amp;" + "&amp;D20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;D20&amp;")"</f>
         <v>Qₙ = Q₁₀ + -78.71 = Q₀ + n∙(-78.71)</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="70" t="s">
         <v>42</v>
       </c>
@@ -2766,13 +2766,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -2789,16 +2792,13 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2822,15 +2822,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="1"/>
@@ -2887,28 +2887,28 @@
       <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="57"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="55" t="s">
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="66"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -2951,20 +2951,20 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F9" s="58" t="str">
+      <c r="F9" s="67" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + -13.1</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="58" t="str">
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="67" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(-0.79%) = Q₀∙(1 + -0.79%)</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="60"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5">
@@ -2985,20 +2985,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F10" s="58" t="str">
+      <c r="F10" s="67" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + -12.99</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="58" t="str">
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="67" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(-0.79%) = Q₁∙(1 + -0.79%) = Q₀∙(1 + -0.79%)²</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5">
@@ -3019,20 +3019,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F11" s="58" t="str">
+      <c r="F11" s="67" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + -12.89</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="58" t="str">
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="67" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(-0.79%) = Q₂∙(1 + -0.79%) = Q₀∙(1 + -0.79%)³</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5">
@@ -3053,20 +3053,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8699999999999326E-3</v>
       </c>
-      <c r="F12" s="58" t="str">
+      <c r="F12" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + -12.79</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="58" t="str">
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="67" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(-0.79%) = Q₃∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁴</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5">
@@ -3087,20 +3087,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F13" s="58" t="str">
+      <c r="F13" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + -12.69</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58" t="str">
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="67" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(-0.79%) = Q₄∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁵</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="69"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
       <c r="A14" s="5">
@@ -3121,20 +3121,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F14" s="58" t="str">
+      <c r="F14" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + -12.59</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="58" t="str">
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="67" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(-0.79%) = Q₅∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁶</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="69"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
       <c r="A15" s="5">
@@ -3155,20 +3155,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F15" s="58" t="str">
+      <c r="F15" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + -12.49</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58" t="str">
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="67" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(-0.79%) = Q₆∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁷</v>
       </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
       <c r="A16" s="5">
@@ -3189,20 +3189,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000001546E-3</v>
       </c>
-      <c r="F16" s="58" t="str">
+      <c r="F16" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + -12.39</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="str">
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="67" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(-0.79%) = Q₇∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁸</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3223,20 +3223,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F17" s="58" t="str">
+      <c r="F17" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + -12.29</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="58" t="str">
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="67" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(-0.79%) = Q₈∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁹</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="69"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3257,20 +3257,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F18" s="58" t="str">
+      <c r="F18" s="67" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + -12.2</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="58" t="str">
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="67" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(-0.79%) = Q₉∙(1 + -0.79%) = Q₀∙(1 + -0.79%)¹⁰</v>
       </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3293,13 +3293,13 @@
       </c>
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
-      <c r="I19" s="58" t="s">
+      <c r="I19" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="60"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3322,14 +3322,14 @@
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
-      <c r="I20" s="64" t="str">
+      <c r="I20" s="58" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + -0.79%)ⁿ</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="66"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="60"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3340,6 +3340,22 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="32">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="I11:M11"/>
@@ -3356,22 +3372,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="I20:M20"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3383,7 +3383,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3628,13 +3628,13 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="40"/>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
@@ -3647,13 +3647,13 @@
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="40"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
@@ -3666,13 +3666,13 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11">
@@ -3709,10 +3709,10 @@
       <c r="D20" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jP9J5sGfDTzR6CiM3NnvmOZPmr+x/3azaxyg649qNPZ/Vgg7ahdSDFLsf7YYq1GQCrEzKmOolY7qDJIlDTb96g==" saltValue="3wJDxoCA/4uPvBF909r5Ag==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0Nkr0m44wOQZjIH1vvAvr3p2EiDXfzzfpcIpIYfVOOWwpVfiF8fDm6JKq9cRDtw+jrgOKVFr8g/ntiHT73+iIQ==" saltValue="ymyL8yxhl3r0KWVhovyjlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D14" sqref="D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3981,13 +3981,13 @@
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
       <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
@@ -4000,13 +4000,13 @@
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="66"/>
       <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
@@ -4019,13 +4019,13 @@
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="52"/>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
       <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11">
@@ -4062,7 +4062,7 @@
       <c r="D20" s="54"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bZL3VNoXVCPAuLyXlaDW0wYblX9sKHBL073IGPvlD03ZLKZbNObknGJixbDlAy5cAFhqdXhuKw3+RXleeCdXhQ==" saltValue="Uo3mXtEj56XVzu8RM/wl5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LliVbaoOCMk/0Aaqb8z327xFuNE6TbCpb0iSDWsA4w4/IIclLfSzHmpc3wsau4pnRNCT28gLuMkZUjEXXUyKwg==" saltValue="4bsHwr7BF0LmBcWYXqUvdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
       <selection activeCell="A8" sqref="A8"/>

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C315C11E-DD53-459E-B7CF-EFED6B7E2EA4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660B795B-2988-41A0-AC5A-AC3ABE99153F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2988" yWindow="420" windowWidth="17916" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" mergeInterval="0" personalView="1" xWindow="249" yWindow="35" windowWidth="1493" windowHeight="938" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" mergeInterval="0" personalView="1" xWindow="249" yWindow="35" windowWidth="1493" windowHeight="938" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1915,8 +1917,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C7CFDBBC-4F2B-4D5B-9640-02436F2C9224}">
-  <header guid="{C7CFDBBC-4F2B-4D5B-9640-02436F2C9224}" dateTime="2020-10-12T16:00:44" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0F2B68B8-0FA7-48D3-B083-3EF54E320476}">
+  <header guid="{0F2B68B8-0FA7-48D3-B083-3EF54E320476}" dateTime="2021-02-01T13:53:47" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1933,7 +1935,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{0F2B68B8-0FA7-48D3-B083-3EF54E320476}" name="Richard Ketchersid" id="-1739547050" dateTime="2021-02-01T13:53:47"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3709,7 +3713,7 @@
       <c r="D20" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0Nkr0m44wOQZjIH1vvAvr3p2EiDXfzzfpcIpIYfVOOWwpVfiF8fDm6JKq9cRDtw+jrgOKVFr8g/ntiHT73+iIQ==" saltValue="ymyL8yxhl3r0KWVhovyjlA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="a5wbRYiDmFX7oxwdmIUTXWM+LWKR51ehbPQcwhFGdUYUAxFAGABhdQ135iP/3yjB6BxeftxU8mgKbt/jcGO1zQ==" saltValue="sRAQbYHeIf+Z5kjc3n8fMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
       <selection activeCell="D14" sqref="D14"/>
@@ -4062,7 +4066,7 @@
       <c r="D20" s="54"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="LliVbaoOCMk/0Aaqb8z327xFuNE6TbCpb0iSDWsA4w4/IIclLfSzHmpc3wsau4pnRNCT28gLuMkZUjEXXUyKwg==" saltValue="4bsHwr7BF0LmBcWYXqUvdg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ENdCph3v2IdeZzhjiTcXWl3rsPxwMjMQyFx1PSo07HFsXXQp12CPlE7eKDQAO1IHWbhBBK8tPdF6fyRDOdGTHw==" saltValue="Mxy0r7tm/UCtizq3HEq5og==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
       <selection activeCell="A8" sqref="A8"/>

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660B795B-2988-41A0-AC5A-AC3ABE99153F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{862090D7-6ABE-4EC4-BE69-9142E4E876F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2988" yWindow="420" windowWidth="17916" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$12:$D$33</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Richard Ketchersid - Personal View" guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" mergeInterval="0" personalView="1" xWindow="249" yWindow="35" windowWidth="1493" windowHeight="938" activeSheetId="1"/>
   </customWorkbookViews>
@@ -1105,45 +1105,81 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1152,42 +1188,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1917,8 +1917,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0F2B68B8-0FA7-48D3-B083-3EF54E320476}">
-  <header guid="{0F2B68B8-0FA7-48D3-B083-3EF54E320476}" dateTime="2021-02-01T13:53:47" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EB0B0C29-520D-442C-B091-D35D46C26CB5}">
+  <header guid="{EB0B0C29-520D-442C-B091-D35D46C26CB5}" dateTime="2021-03-03T17:43:29" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1936,7 +1936,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{0F2B68B8-0FA7-48D3-B083-3EF54E320476}" name="Richard Ketchersid" id="-1739547050" dateTime="2021-02-01T13:53:47"/>
+  <userInfo guid="{EB0B0C29-520D-442C-B091-D35D46C26CB5}" name="Richard Ketchersid" id="-1739531925" dateTime="2021-03-03T17:43:29"/>
 </users>
 </file>
 
@@ -2240,7 +2240,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E5" sqref="E5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2251,98 +2251,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="84"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="78"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="64" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -2384,19 +2384,19 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>-4.7301682692307723E-2</v>
       </c>
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="58" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;D9</f>
         <v>Q₁ = Q₀ + -78.71</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="55" t="str">
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="79" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(-4.73%) = Q₀∙(1 + -4.73%)</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
@@ -2418,19 +2418,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-4.9650221725993426E-2</v>
       </c>
-      <c r="F10" s="67" t="str">
+      <c r="F10" s="58" t="str">
         <f t="shared" ref="F10:F18" ca="1" si="2">B10&amp;" = "&amp;B9&amp;" + "&amp;D10&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;D10&amp;")"</f>
         <v>Q₂ = Q₁ + -78.71 = Q₀ + 2∙(-78.71)</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="55" t="str">
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="79" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(-4.97%) = Q₁∙(1 + -4.97%)</v>
       </c>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
@@ -2452,19 +2452,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.224415563727125E-2</v>
       </c>
-      <c r="F11" s="67" t="str">
+      <c r="F11" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₃ = Q₂ + -78.71 = Q₀ + 3∙(-78.71)</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="55" t="str">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="79" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="3">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(-5.22%) = Q₂∙(1 + -5.22%)</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
@@ -2486,19 +2486,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.5124065916364984E-2</v>
       </c>
-      <c r="F12" s="67" t="str">
+      <c r="F12" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + -78.71 = Q₀ + 4∙(-78.71)</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="55" t="str">
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="79" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₄ = Q₃ + Q₃∙(-5.51%) = Q₃∙(1 + -5.51%)</v>
       </c>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
@@ -2520,19 +2520,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-5.8340004150730818E-2</v>
       </c>
-      <c r="F13" s="67" t="str">
+      <c r="F13" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + -78.71 = Q₀ + 5∙(-78.71)</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="55" t="str">
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="79" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + Q₄∙(-5.83%) = Q₄∙(1 + -5.83%)</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
@@ -2554,19 +2554,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-6.1954425597229412E-2</v>
       </c>
-      <c r="F14" s="67" t="str">
+      <c r="F14" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + -78.71 = Q₀ + 6∙(-78.71)</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="55" t="str">
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="79" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + Q₅∙(-6.2%) = Q₅∙(1 + -6.2%)</v>
       </c>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
@@ -2588,19 +2588,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-6.6046285263564264E-2</v>
       </c>
-      <c r="F15" s="67" t="str">
+      <c r="F15" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + -78.71 = Q₀ + 7∙(-78.71)</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="55" t="str">
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="79" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + Q₆∙(-6.6%) = Q₆∙(1 + -6.6%)</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
@@ -2622,19 +2622,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.0716871962121508E-2</v>
       </c>
-      <c r="F16" s="67" t="str">
+      <c r="F16" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + -78.71 = Q₀ + 8∙(-78.71)</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="55" t="str">
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="79" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + Q₇∙(-7.07%) = Q₇∙(1 + -7.07%)</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2656,19 +2656,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.6098306133498439E-2</v>
       </c>
-      <c r="F17" s="67" t="str">
+      <c r="F17" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + -78.71 = Q₀ + 9∙(-78.71)</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="55" t="str">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="79" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + Q₈∙(-7.61%) = Q₈∙(1 + -7.61%)</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2690,19 +2690,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>-8.2366237272527565E-2</v>
       </c>
-      <c r="F18" s="67" t="str">
+      <c r="F18" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + -78.71 = Q₀ + 10∙(-78.71)</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="55" t="str">
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="79" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(-8.24%) = Q₉∙(1 + -8.24%)</v>
       </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="57"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -2748,38 +2748,36 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="58" t="str">
+      <c r="F20" s="76" t="str">
         <f ca="1">B20&amp;" = "&amp;B18&amp;" + "&amp;D20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;D20&amp;")"</f>
         <v>Qₙ = Q₁₀ + -78.71 = Q₀ + n∙(-78.71)</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="70" t="s">
+      <c r="G20" s="77"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="72"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="a2DQ32OMBCzqc/+3S5AGWi1+ByrVFLO6C4fiZvPAIwuw9v+eB3fIKfGRsIun1HwlGf5Cqo+zZSPe3BtVGMA4Ug==" saltValue="yPMkoupZy51rF287VzvJ7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="E5" sqref="E5:K6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -2796,13 +2794,16 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2826,93 +2827,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="81"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="72"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="84"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="78"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="84"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="66"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="35" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="64" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -2955,20 +2956,20 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="58" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + -13.1</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="67" t="str">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="58" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(-0.79%) = Q₀∙(1 + -0.79%)</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5">
@@ -2989,20 +2990,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F10" s="67" t="str">
+      <c r="F10" s="58" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + -12.99</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="67" t="str">
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="58" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(-0.79%) = Q₁∙(1 + -0.79%) = Q₀∙(1 + -0.79%)²</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5">
@@ -3023,20 +3024,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F11" s="67" t="str">
+      <c r="F11" s="58" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + -12.89</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="67" t="str">
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="58" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(-0.79%) = Q₂∙(1 + -0.79%) = Q₀∙(1 + -0.79%)³</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5">
@@ -3057,20 +3058,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8699999999999326E-3</v>
       </c>
-      <c r="F12" s="67" t="str">
+      <c r="F12" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + -12.79</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="67" t="str">
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="58" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(-0.79%) = Q₃∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁴</v>
       </c>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="60"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5">
@@ -3091,20 +3092,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F13" s="67" t="str">
+      <c r="F13" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + -12.69</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="67" t="str">
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="58" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(-0.79%) = Q₄∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁵</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="60"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
       <c r="A14" s="5">
@@ -3125,20 +3126,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F14" s="67" t="str">
+      <c r="F14" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + -12.59</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="67" t="str">
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="58" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(-0.79%) = Q₅∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁶</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="69"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="60"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
       <c r="A15" s="5">
@@ -3159,20 +3160,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F15" s="67" t="str">
+      <c r="F15" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + -12.49</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="67" t="str">
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(-0.79%) = Q₆∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁷</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
       <c r="A16" s="5">
@@ -3193,20 +3194,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000001546E-3</v>
       </c>
-      <c r="F16" s="67" t="str">
+      <c r="F16" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + -12.39</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="67" t="str">
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="58" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(-0.79%) = Q₇∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁸</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="60"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3227,20 +3228,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F17" s="67" t="str">
+      <c r="F17" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + -12.29</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="67" t="str">
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="58" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(-0.79%) = Q₈∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁹</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="69"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="60"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3261,20 +3262,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>-7.8700000000000436E-3</v>
       </c>
-      <c r="F18" s="67" t="str">
+      <c r="F18" s="58" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + -12.2</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="67" t="str">
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="58" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(-0.79%) = Q₉∙(1 + -0.79%) = Q₀∙(1 + -0.79%)¹⁰</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="60"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3297,13 +3298,13 @@
       </c>
       <c r="G19" s="62"/>
       <c r="H19" s="62"/>
-      <c r="I19" s="67" t="s">
+      <c r="I19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="69"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="60"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3326,16 +3327,17 @@
       </c>
       <c r="G20" s="86"/>
       <c r="H20" s="86"/>
-      <c r="I20" s="58" t="str">
+      <c r="I20" s="76" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + -0.79%)ⁿ</v>
       </c>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="60"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="78"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="lfgro3jUri/geAqZjT7vxKoUmTM1toCZ8bynjP6HGFQV42lcSv9qbWLBba9RUFnV7gncuqILdVzOMnNuz6JjSg==" saltValue="RJijmpSrRV4f3JXxOJcf4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
       <selection activeCell="P14" sqref="P14"/>
@@ -3344,6 +3346,22 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="32">
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F9:H9"/>
@@ -3360,22 +3378,6 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3567,13 +3569,13 @@
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="29" t="s">
         <v>70</v>
       </c>
@@ -3589,11 +3591,11 @@
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13">
@@ -3605,11 +3607,11 @@
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="40"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14">
@@ -3632,13 +3634,13 @@
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="40"/>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
@@ -3651,13 +3653,13 @@
       </c>
       <c r="C16" s="39"/>
       <c r="D16" s="40"/>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
       <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
@@ -3670,13 +3672,13 @@
       </c>
       <c r="C17" s="39"/>
       <c r="D17" s="40"/>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11">
@@ -3920,13 +3922,13 @@
       <c r="C11" s="51"/>
       <c r="D11" s="52"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="76" t="s">
+      <c r="F11" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="28" t="s">
         <v>70</v>
       </c>
@@ -3942,11 +3944,11 @@
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="52"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
     </row>
     <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13">
@@ -3958,11 +3960,11 @@
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="52"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14">
@@ -3985,13 +3987,13 @@
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="52"/>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
@@ -4004,13 +4006,13 @@
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="52"/>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="66"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
       <c r="K16" s="44"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
@@ -4023,13 +4025,13 @@
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="52"/>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="44"/>
     </row>
     <row r="18" spans="1:11">

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{862090D7-6ABE-4EC4-BE69-9142E4E876F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{1472CDA9-D3B8-409B-822C-E7FBDD5BD073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2988" yWindow="420" windowWidth="17916" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
+    <workbookView xWindow="3735" yWindow="525" windowWidth="22395" windowHeight="14070" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Change" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
   <si>
     <t>Period</t>
   </si>
@@ -327,9 +327,6 @@
     <t>Is there fixed growth (change) per period, or fixed relative growth (percentage change) per period?</t>
   </si>
   <si>
-    <t>johnt</t>
-  </si>
-  <si>
     <t>You deposite a number of rallods in a bank. The statements for the first 12 periods, in this case quarters, is shown. Decide if there is a fixed change per period, or a fixed percentage change per period. Decide whether a linear or exponential model should be used then write down the model and use it to predict the future value of the account after 9 years.</t>
   </si>
   <si>
@@ -403,13 +400,19 @@
   </si>
   <si>
     <t>Period (half year)</t>
+  </si>
+  <si>
+    <t>aword</t>
+  </si>
+  <si>
+    <t>Enter your name in D1 on the first tab.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +453,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="8">
@@ -496,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -931,12 +941,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1039,9 +1120,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1105,6 +1183,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1114,22 +1201,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,33 +1245,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1229,13 +1280,100 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1882,8 +2020,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4035083" y="3129475"/>
-              <a:ext cx="4572000" cy="2760785"/>
+              <a:off x="3993173" y="3259015"/>
+              <a:ext cx="4572000" cy="2875085"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1917,8 +2055,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{EB0B0C29-520D-442C-B091-D35D46C26CB5}">
-  <header guid="{EB0B0C29-520D-442C-B091-D35D46C26CB5}" dateTime="2021-03-03T17:43:29" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{80033BC4-3AB5-492B-A411-4E7241F20D8D}">
+  <header guid="{80033BC4-3AB5-492B-A411-4E7241F20D8D}" dateTime="2021-04-19T11:40:23" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1936,7 +2074,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{EB0B0C29-520D-442C-B091-D35D46C26CB5}" name="Richard Ketchersid" id="-1739531925" dateTime="2021-03-03T17:43:29"/>
+  <userInfo guid="{80033BC4-3AB5-492B-A411-4E7241F20D8D}" name="Richard Ketchersid" id="-1739552513" dateTime="2021-04-19T11:40:23"/>
 </users>
 </file>
 
@@ -2240,109 +2378,109 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:K6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.2" thickBot="1">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:13" ht="17.25" thickBot="1">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="64" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="65"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="35" t="s">
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="55" t="s">
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -2353,17 +2491,17 @@
       </c>
       <c r="C8" s="10">
         <f ca="1">MOD(Sheet2!B12,1000)+1000</f>
-        <v>1664</v>
+        <v>1098</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5">
@@ -2374,29 +2512,29 @@
       </c>
       <c r="C9" s="11">
         <f ca="1">C8+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>1585.29</v>
+        <v>1132.82</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ref="D9:D18" ca="1" si="0">C9-C8</f>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
-        <v>-4.7301682692307723E-2</v>
-      </c>
-      <c r="F9" s="58" t="str">
-        <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;D9</f>
-        <v>Q₁ = Q₀ + -78.71</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="79" t="str">
+        <v>3.1712204007285916E-2</v>
+      </c>
+      <c r="F9" s="54" t="str">
+        <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
+        <v>Q₁ = Q₀ + 34.82</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="54" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
-        <v>Q₁ = Q₀ + Q₀∙(-4.73%) = Q₀∙(1 + -4.73%)</v>
-      </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="81"/>
+        <v>Q₁ = Q₀ + Q₀∙(3.17%) = Q₀∙(1 + 3.17%)</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13">
@@ -2408,29 +2546,29 @@
       </c>
       <c r="C10" s="11">
         <f ca="1">C9+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>1506.58</v>
+        <v>1167.6399999999999</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9650221725993426E-2</v>
-      </c>
-      <c r="F10" s="58" t="str">
-        <f t="shared" ref="F10:F18" ca="1" si="2">B10&amp;" = "&amp;B9&amp;" + "&amp;D10&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;D10&amp;")"</f>
-        <v>Q₂ = Q₁ + -78.71 = Q₀ + 2∙(-78.71)</v>
-      </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="79" t="str">
+        <v>3.0737451669285543E-2</v>
+      </c>
+      <c r="F10" s="54" t="str">
+        <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;ROUND(D10,2)&amp;")"</f>
+        <v>Q₂ = Q₁ + 34.82 = Q₀ + 2∙(34.82)</v>
+      </c>
+      <c r="G10" s="55"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="54" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
-        <v>Q₂ = Q₁ + Q₁∙(-4.97%) = Q₁∙(1 + -4.97%)</v>
-      </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="81"/>
+        <v>Q₂ = Q₁ + Q₁∙(3.07%) = Q₁∙(1 + 3.07%)</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13">
@@ -2442,29 +2580,29 @@
       </c>
       <c r="C11" s="11">
         <f ca="1">C10+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>1427.87</v>
+        <v>1202.4599999999998</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.224415563727125E-2</v>
-      </c>
-      <c r="F11" s="58" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Q₃ = Q₂ + -78.71 = Q₀ + 3∙(-78.71)</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="79" t="str">
-        <f t="shared" ref="I11:I17" ca="1" si="3">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
-        <v>Q₃ = Q₂ + Q₂∙(-5.22%) = Q₂∙(1 + -5.22%)</v>
-      </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="81"/>
+        <v>2.9820835188927974E-2</v>
+      </c>
+      <c r="F11" s="54" t="str">
+        <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;" = "&amp;B$8&amp;" + "&amp;A11&amp;"∙("&amp;ROUND(D11,2)&amp;")"</f>
+        <v>Q₃ = Q₂ + 34.82 = Q₀ + 3∙(34.82)</v>
+      </c>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="54" t="str">
+        <f t="shared" ref="I11:I17" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
+        <v>Q₃ = Q₂ + Q₂∙(2.98%) = Q₂∙(1 + 2.98%)</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13">
@@ -2476,29 +2614,29 @@
       </c>
       <c r="C12" s="11">
         <f ca="1">C11+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>1349.1599999999999</v>
+        <v>1237.2799999999997</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.5124065916364984E-2</v>
-      </c>
-      <c r="F12" s="58" t="str">
+        <v>2.8957304193070854E-2</v>
+      </c>
+      <c r="F12" s="54" t="str">
+        <f t="shared" ref="F12:F20" ca="1" si="3">B12&amp;" = "&amp;B11&amp;" + "&amp;ROUND(D12,2)&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;ROUND(D12,2)&amp;")"</f>
+        <v>Q₄ = Q₃ + 34.82 = Q₀ + 4∙(34.82)</v>
+      </c>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₄ = Q₃ + -78.71 = Q₀ + 4∙(-78.71)</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Q₄ = Q₃ + Q₃∙(-5.51%) = Q₃∙(1 + -5.51%)</v>
-      </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="81"/>
+        <v>Q₄ = Q₃ + Q₃∙(2.9%) = Q₃∙(1 + 2.9%)</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13">
@@ -2510,29 +2648,29 @@
       </c>
       <c r="C13" s="11">
         <f ca="1">C12+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>1270.4499999999998</v>
+        <v>1272.0999999999997</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8340004150730818E-2</v>
-      </c>
-      <c r="F13" s="58" t="str">
+        <v>2.8142376826587379E-2</v>
+      </c>
+      <c r="F13" s="54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Q₅ = Q₄ + 34.82 = Q₀ + 5∙(34.82)</v>
+      </c>
+      <c r="G13" s="55"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₅ = Q₄ + -78.71 = Q₀ + 5∙(-78.71)</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Q₅ = Q₄ + Q₄∙(-5.83%) = Q₄∙(1 + -5.83%)</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
+        <v>Q₅ = Q₄ + Q₄∙(2.81%) = Q₄∙(1 + 2.81%)</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
@@ -2544,29 +2682,29 @@
       </c>
       <c r="C14" s="11">
         <f ca="1">C13+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>1191.7399999999998</v>
+        <v>1306.9199999999996</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.1954425597229412E-2</v>
-      </c>
-      <c r="F14" s="58" t="str">
+        <v>2.7372061944815673E-2</v>
+      </c>
+      <c r="F14" s="54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Q₆ = Q₅ + 34.82 = Q₀ + 6∙(34.82)</v>
+      </c>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₆ = Q₅ + -78.71 = Q₀ + 6∙(-78.71)</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Q₆ = Q₅ + Q₅∙(-6.2%) = Q₅∙(1 + -6.2%)</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="81"/>
+        <v>Q₆ = Q₅ + Q₅∙(2.74%) = Q₅∙(1 + 2.74%)</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
@@ -2578,29 +2716,29 @@
       </c>
       <c r="C15" s="11">
         <f ca="1">C14+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>1113.0299999999997</v>
+        <v>1341.7399999999996</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6046285263564264E-2</v>
-      </c>
-      <c r="F15" s="58" t="str">
+        <v>2.6642793744070081E-2</v>
+      </c>
+      <c r="F15" s="54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Q₇ = Q₆ + 34.82 = Q₀ + 7∙(34.82)</v>
+      </c>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₇ = Q₆ + -78.71 = Q₀ + 7∙(-78.71)</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Q₇ = Q₆ + Q₆∙(-6.6%) = Q₆∙(1 + -6.6%)</v>
-      </c>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="81"/>
+        <v>Q₇ = Q₆ + Q₆∙(2.66%) = Q₆∙(1 + 2.66%)</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="56"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
@@ -2612,29 +2750,29 @@
       </c>
       <c r="C16" s="11">
         <f ca="1">C15+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>1034.3199999999997</v>
+        <v>1376.5599999999995</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.0716871962121508E-2</v>
-      </c>
-      <c r="F16" s="58" t="str">
+        <v>2.5951376570721552E-2</v>
+      </c>
+      <c r="F16" s="54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Q₈ = Q₇ + 34.82 = Q₀ + 8∙(34.82)</v>
+      </c>
+      <c r="G16" s="55"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₈ = Q₇ + -78.71 = Q₀ + 8∙(-78.71)</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Q₈ = Q₇ + Q₇∙(-7.07%) = Q₇∙(1 + -7.07%)</v>
-      </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
+        <v>Q₈ = Q₇ + Q₇∙(2.6%) = Q₇∙(1 + 2.6%)</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2646,29 +2784,29 @@
       </c>
       <c r="C17" s="11">
         <f ca="1">C16+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>955.60999999999967</v>
+        <v>1411.3799999999994</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.6098306133498439E-2</v>
-      </c>
-      <c r="F17" s="58" t="str">
+        <v>2.5294938106584564E-2</v>
+      </c>
+      <c r="F17" s="54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Q₉ = Q₈ + 34.82 = Q₀ + 9∙(34.82)</v>
+      </c>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="54" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₉ = Q₈ + -78.71 = Q₀ + 9∙(-78.71)</v>
-      </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="79" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Q₉ = Q₈ + Q₈∙(-7.61%) = Q₈∙(1 + -7.61%)</v>
-      </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
+        <v>Q₉ = Q₈ + Q₈∙(2.53%) = Q₈∙(1 + 2.53%)</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2680,29 +2818,29 @@
       </c>
       <c r="C18" s="11">
         <f ca="1">C17+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
-        <v>876.89999999999964</v>
+        <v>1446.1999999999994</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2366237272527565E-2</v>
-      </c>
-      <c r="F18" s="58" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Q₁₀ = Q₉ + -78.71 = Q₀ + 10∙(-78.71)</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="79" t="str">
+        <v>2.4670889484051051E-2</v>
+      </c>
+      <c r="F18" s="54" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>Q₁₀ = Q₉ + 34.82 = Q₀ + 10∙(34.82)</v>
+      </c>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="54" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
-        <v>Q₁₀ = Q₉ + Q₉∙(-8.24%) = Q₉∙(1 + -8.24%)</v>
-      </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
+        <v>Q₁₀ = Q₉ + Q₉∙(2.47%) = Q₉∙(1 + 2.47%)</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -2721,19 +2859,20 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="54" t="str">
+        <f>A19</f>
+        <v>⋮</v>
+      </c>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -2743,41 +2882,44 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14">
         <f ca="1">D18</f>
-        <v>-78.710000000000036</v>
+        <v>34.819999999999936</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="76" t="str">
-        <f ca="1">B20&amp;" = "&amp;B18&amp;" + "&amp;D20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;D20&amp;")"</f>
-        <v>Qₙ = Q₁₀ + -78.71 = Q₀ + n∙(-78.71)</v>
-      </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="82" t="s">
+      <c r="F20" s="60" t="str">
+        <f ca="1">B20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;ROUND(D20,2)&amp;")"</f>
+        <v>Qₙ = Q₀ + n∙(34.82)</v>
+      </c>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="62"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a2DQ32OMBCzqc/+3S5AGWi1+ByrVFLO6C4fiZvPAIwuw9v+eB3fIKfGRsIun1HwlGf5Cqo+zZSPe3BtVGMA4Ug==" saltValue="yPMkoupZy51rF287VzvJ7w==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
+  <sheetProtection formatCells="0" formatColumns="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="E5" sqref="E5:K6"/>
+      <selection activeCell="M10" sqref="M10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -2794,16 +2936,13 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2815,105 +2954,105 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
-      <c r="E1" s="55" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="57"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1">
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1">
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
-      <c r="A7" s="35" t="s">
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="68"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1">
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="59"/>
+      <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="F7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="55" t="s">
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="59"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="5">
@@ -2924,18 +3063,18 @@
       </c>
       <c r="C8" s="10">
         <f ca="1">MOD(Sheet2!B12,1000)+1000</f>
-        <v>1664</v>
+        <v>1098</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="56"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="5">
@@ -2946,30 +3085,30 @@
       </c>
       <c r="C9" s="11">
         <f ca="1">C8*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1650.9043199999999</v>
+        <v>1101.8210399999998</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ref="D9:D18" ca="1" si="0">C9-C8</f>
-        <v>-13.095680000000129</v>
+        <v>3.8210399999998117</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F9" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F9" s="89" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
-        <v>Q₁ = Q₀ + -13.1</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="58" t="str">
+        <v>Q₁ = Q₀ + 3.82</v>
+      </c>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="54" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
-        <v>Q₁ = Q₀ + Q₀∙(-0.79%) = Q₀∙(1 + -0.79%)</v>
-      </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="60"/>
+        <v>Q₁ = Q₀ + Q₀∙(0.35%) = Q₀∙(1 + 0.35%)</v>
+      </c>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="5">
@@ -2980,30 +3119,30 @@
       </c>
       <c r="C10" s="11">
         <f ca="1">C9*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1637.9117030015998</v>
+        <v>1105.6553772191996</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.992616998400081</v>
+        <v>3.8343372191998242</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F10" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F10" s="89" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
-        <v>Q₂ = Q₁ + -12.99</v>
-      </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="58" t="str">
+        <v>Q₂ = Q₁ + 3.83</v>
+      </c>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="54" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
-        <v>Q₂ = Q₁ + Q₁∙(-0.79%) = Q₁∙(1 + -0.79%) = Q₀∙(1 + -0.79%)²</v>
-      </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
+        <v>Q₂ = Q₁ + Q₁∙(0.35%) = Q₁∙(1 + 0.35%) = Q₀∙(1 + 0.35%)²</v>
+      </c>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="56"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="5">
@@ -3014,30 +3153,30 @@
       </c>
       <c r="C11" s="11">
         <f ca="1">C10*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1625.0213378989772</v>
+        <v>1109.5030579319223</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.890365102622582</v>
+        <v>3.8476807127226493</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F11" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F11" s="89" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
-        <v>Q₃ = Q₂ + -12.89</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="58" t="str">
+        <v>Q₃ = Q₂ + 3.85</v>
+      </c>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="54" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
-        <v>Q₃ = Q₂ + Q₂∙(-0.79%) = Q₂∙(1 + -0.79%) = Q₀∙(1 + -0.79%)³</v>
-      </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="60"/>
+        <v>Q₃ = Q₂ + Q₂∙(0.35%) = Q₂∙(1 + 0.35%) = Q₀∙(1 + 0.35%)³</v>
+      </c>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="56"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="5">
@@ -3048,30 +3187,30 @@
       </c>
       <c r="C12" s="11">
         <f ca="1">C11*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1612.2324199697123</v>
+        <v>1113.3641285735252</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.788917929264926</v>
+        <v>3.8610706416029643</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8699999999999326E-3</v>
-      </c>
-      <c r="F12" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F12" s="89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₄ = Q₃ + -12.79</v>
-      </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="58" t="str">
+        <v>Q₄ = Q₃ + 3.86</v>
+      </c>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="54" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
-        <v>Q₄ = Q₃ + Q₃∙(-0.79%) = Q₃∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁴</v>
-      </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60"/>
+        <v>Q₄ = Q₃ + Q₃∙(0.35%) = Q₃∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁴</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="56"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5">
@@ -3082,30 +3221,30 @@
       </c>
       <c r="C13" s="11">
         <f ca="1">C12*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1599.5441508245506</v>
+        <v>1117.2386357409609</v>
       </c>
       <c r="D13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.688269145161712</v>
+        <v>3.874507167435695</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F13" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F13" s="89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₅ = Q₄ + -12.69</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="58" t="str">
+        <v>Q₅ = Q₄ + 3.87</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="54" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
-        <v>Q₅ = Q₄ + Q₄∙(-0.79%) = Q₄∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁵</v>
-      </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="60"/>
+        <v>Q₅ = Q₄ + Q₄∙(0.35%) = Q₄∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁵</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" customHeight="1">
       <c r="A14" s="5">
@@ -3116,30 +3255,30 @@
       </c>
       <c r="C14" s="11">
         <f ca="1">C13*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1586.9557383575614</v>
+        <v>1121.1266261933395</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.588412466989212</v>
+        <v>3.8879904523785171</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F14" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F14" s="89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₆ = Q₅ + -12.59</v>
-      </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="58" t="str">
+        <v>Q₆ = Q₅ + 3.89</v>
+      </c>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="54" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
-        <v>Q₆ = Q₅ + Q₅∙(-0.79%) = Q₅∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁶</v>
-      </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="60"/>
+        <v>Q₆ = Q₅ + Q₅∙(0.35%) = Q₅∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁶</v>
+      </c>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="56"/>
     </row>
     <row r="15" spans="1:13" ht="15.6" customHeight="1">
       <c r="A15" s="5">
@@ -3150,30 +3289,30 @@
       </c>
       <c r="C15" s="11">
         <f ca="1">C14*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1574.4663966966873</v>
+        <v>1125.0281468524922</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.489341660874061</v>
+        <v>3.9015206591527658</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F15" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F15" s="89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₇ = Q₆ + -12.49</v>
-      </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="58" t="str">
+        <v>Q₇ = Q₆ + 3.9</v>
+      </c>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="54" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
-        <v>Q₇ = Q₆ + Q₆∙(-0.79%) = Q₆∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁷</v>
-      </c>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60"/>
+        <v>Q₇ = Q₆ + Q₆∙(0.35%) = Q₆∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁷</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" customHeight="1">
       <c r="A16" s="5">
@@ -3184,30 +3323,30 @@
       </c>
       <c r="C16" s="11">
         <f ca="1">C15*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1562.0753461546842</v>
+        <v>1128.9432448035388</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.391050542003086</v>
+        <v>3.9150979510466186</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8700000000001546E-3</v>
-      </c>
-      <c r="F16" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F16" s="89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₈ = Q₇ + -12.39</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="str">
+        <v>Q₈ = Q₇ + 3.92</v>
+      </c>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="54" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
-        <v>Q₈ = Q₇ + Q₇∙(-0.79%) = Q₇∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁸</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="60"/>
+        <v>Q₈ = Q₇ + Q₇∙(0.35%) = Q₇∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁸</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="56"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3218,30 +3357,30 @@
       </c>
       <c r="C17" s="11">
         <f ca="1">C16*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1549.7818131804468</v>
+        <v>1132.8719672954551</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.293532974237451</v>
+        <v>3.9287224919162327</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F17" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F17" s="89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₉ = Q₈ + -12.29</v>
-      </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="58" t="str">
+        <v>Q₉ = Q₈ + 3.93</v>
+      </c>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="54" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
-        <v>Q₉ = Q₈ + Q₈∙(-0.79%) = Q₈∙(1 + -0.79%) = Q₀∙(1 + -0.79%)⁹</v>
-      </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="60"/>
+        <v>Q₉ = Q₈ + Q₈∙(0.35%) = Q₈∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁹</v>
+      </c>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="56"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3252,30 +3391,30 @@
       </c>
       <c r="C18" s="11">
         <f ca="1">C17*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
-        <v>1537.5850303107165</v>
+        <v>1136.8143617416431</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>-12.196782869730214</v>
+        <v>3.9423944461880183</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F18" s="58" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F18" s="89" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Q₁₀ = Q₉ + -12.2</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="58" t="str">
+        <v>Q₁₀ = Q₉ + 3.94</v>
+      </c>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="54" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
-        <v>Q₁₀ = Q₉ + Q₉∙(-0.79%) = Q₉∙(1 + -0.79%) = Q₀∙(1 + -0.79%)¹⁰</v>
-      </c>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60"/>
+        <v>Q₁₀ = Q₉ + Q₉∙(0.35%) = Q₉∙(1 + 0.35%) = Q₀∙(1 + 0.35%)¹⁰</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="56"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3293,20 +3432,20 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="58" t="s">
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="60"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="56"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -3319,33 +3458,49 @@
       </c>
       <c r="E20" s="15">
         <f ca="1">E18</f>
-        <v>-7.8700000000000436E-3</v>
-      </c>
-      <c r="F20" s="85" t="str">
+        <v>3.4799999999999276E-3</v>
+      </c>
+      <c r="F20" s="95" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="76" t="str">
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="92" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
-        <v>Qₙ =  Q₀∙(1 + -0.79%)ⁿ</v>
-      </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
+        <v>Qₙ =  Q₀∙(1 + 0.35%)ⁿ</v>
+      </c>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lfgro3jUri/geAqZjT7vxKoUmTM1toCZ8bynjP6HGFQV42lcSv9qbWLBba9RUFnV7gncuqILdVzOMnNuz6JjSg==" saltValue="RJijmpSrRV4f3JXxOJcf4g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
+  <sheetProtection formatCells="0" formatColumns="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="F27" sqref="F27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="32">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="I11:M11"/>
@@ -3362,22 +3517,6 @@
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="I20:M20"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -3386,705 +3525,778 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF79418-C12E-441C-955A-4392F0CF155C}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
-      <c r="K1" s="87" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:12" ht="18.75" thickBot="1">
+      <c r="F2" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
+      <c r="A4" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="K4" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
+      <c r="K5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="88"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
-      <c r="K2" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="19" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="K6" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="K3" s="20" t="s">
+      <c r="L6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="21" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="K7" s="22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="K4" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="21" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="K8" s="35" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="K5" s="36" t="s">
+      <c r="L8" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="21" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="K6" s="24" t="s">
+      <c r="L9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="25" t="s">
+    </row>
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="46">
+        <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
+        <v>1066</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="31" t="s">
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1115.0123168945313</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="43"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1166.2781114695222</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1219.9009936332179</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="F14" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1275.9893370477628</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1334.6564981560439</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1396.0210452789045</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1460.2069982457379</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="F18" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1527.3440790427662</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="F19" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1597.5679739855711</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="F20" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="47">
-        <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
-        <v>1968</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="43"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B8*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B8+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1884.11015625</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B9*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B9+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1803.796280937195</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B10*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B10+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1726.9059414226358</v>
-      </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="F11" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1653.2932028063292</v>
-      </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1582.8183509484227</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1515.3476272971545</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1450.7529750202789</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="F15" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1388.9117959581351</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="F16" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1329.7067179370681</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="F17" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
         <v>10</v>
       </c>
-      <c r="B18" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1273.0253720015671</v>
-      </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
+      <c r="B21" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B20*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B20+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1671.0206079457353</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B19" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1218.7601791423206</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
-      <c r="A20">
+      <c r="B22" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B21*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B21+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1747.8504311858183</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A23">
         <v>12</v>
       </c>
-      <c r="B20" s="48">
-        <f ca="1">IF(Sheet2!C$28=0,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1166.8081461154043</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
+      <c r="B23" s="47">
+        <f ca="1">IF(Sheet2!C$28=0,B22*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B22+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1828.2127193823683</v>
+      </c>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="a5wbRYiDmFX7oxwdmIUTXWM+LWKR51ehbPQcwhFGdUYUAxFAGABhdQ135iP/3yjB6BxeftxU8mgKbt/jcGO1zQ==" saltValue="sRAQbYHeIf+Z5kjc3n8fMw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H28" sqref="H28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="7">
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="F8:J9"/>
-    <mergeCell ref="F11:J13"/>
-    <mergeCell ref="F15:J15"/>
+  <mergeCells count="8">
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="F11:J12"/>
+    <mergeCell ref="F14:J16"/>
+    <mergeCell ref="F18:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{D5A478AD-7002-4CE5-8B27-7F3B4FAF96BE}">
+            <xm:f>'Constant Change'!$D$1="aword"</xm:f>
+            <x14:dxf>
+              <font>
+                <strike val="0"/>
+                <color theme="6" tint="-0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A4:L23</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77757405-FFA4-43AF-9C54-9F380FA82D70}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:12" ht="18.75" thickBot="1">
+      <c r="F2" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
+      <c r="A4" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="K4" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
-      <c r="K1" s="87" t="s">
+      <c r="L4" s="105"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
+      <c r="K5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="88"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94"/>
-      <c r="K2" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="19" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="K6" s="20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="94"/>
-      <c r="K3" s="20" t="s">
+      <c r="L6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="21" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="83"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="K7" s="22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="97"/>
-      <c r="K4" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L4" s="21" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="K8" s="23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="K5" s="23" t="s">
+      <c r="L8" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="21" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="K9" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="K6" s="24" t="s">
+      <c r="L9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="25" t="s">
+    </row>
+    <row r="10" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="46">
+        <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
+        <v>1066</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A7" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="L11" s="42"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
-      <c r="A8" s="2">
-        <v>0</v>
-      </c>
-      <c r="B8" s="47">
-        <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
-        <v>1968</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="27" t="s">
+      <c r="B12" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1139.42529296875</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="43"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B8*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B8+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1935.767333984375</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="28" t="s">
+      <c r="L12" s="43"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1212.8505859375</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1286.27587890625</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B9*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B9+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1903.53466796875</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B10*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B10+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1871.302001953125</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="67" t="s">
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1359.701171875</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1433.12646484375</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1506.5517578125</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1579.97705078125</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="F18" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="45"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1653.40234375</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="F19" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1839.0693359375</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1806.836669921875</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
-      <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1774.60400390625</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
-      <c r="A15">
-        <v>7</v>
-      </c>
-      <c r="B15" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1742.371337890625</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="F15" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1710.138671875</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="F16" s="55" t="s">
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="43"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1726.82763671875</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="F20" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="44"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
-      <c r="A17">
-        <v>9</v>
-      </c>
-      <c r="B17" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1677.906005859375</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="F17" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="44"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
         <v>10</v>
       </c>
-      <c r="B18" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1645.67333984375</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19">
+      <c r="B21" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B20*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B20+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1800.2529296875</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B19" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1613.440673828125</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
-      <c r="A20">
+      <c r="B22" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B21*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B21+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1873.67822265625</v>
+      </c>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A23">
         <v>12</v>
       </c>
-      <c r="B20" s="48">
-        <f ca="1">IF(Sheet2!C$28=1,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
-        <v>1581.2080078125</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
+      <c r="B23" s="47">
+        <f ca="1">IF(Sheet2!C$28=1,B22*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B22+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
+        <v>1947.103515625</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ENdCph3v2IdeZzhjiTcXWl3rsPxwMjMQyFx1PSo07HFsXXQp12CPlE7eKDQAO1IHWbhBBK8tPdF6fyRDOdGTHw==" saltValue="Mxy0r7tm/UCtizq3HEq5og==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="K25" sqref="K25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="7">
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="A1:I4"/>
-    <mergeCell ref="F8:J9"/>
-    <mergeCell ref="F11:J13"/>
+  <mergeCells count="8">
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="A4:I7"/>
+    <mergeCell ref="F11:J12"/>
+    <mergeCell ref="F14:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{8130E405-B7D1-4AE7-BB4B-6762B7A73A63}">
+            <xm:f>'Constant Change'!$D$1="aword"</xm:f>
+            <x14:dxf>
+              <font>
+                <color theme="6" tint="-0.24994659260841701"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A4:L23</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4096,7 +4308,7 @@
       <selection activeCell="F35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -4369,11 +4581,11 @@
       </c>
       <c r="B6">
         <f>CODE(MID('Constant Change'!D$1,Sheet2!A6,1))</f>
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C6">
         <f>MOD(B6,16)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f>MOD((B6-C6)/16,16)</f>
@@ -4381,7 +4593,7 @@
       </c>
       <c r="E6">
         <f ca="1">INDIRECT("R"&amp;(C6+1)&amp;"C"&amp;(D6+7),0)</f>
-        <v>503</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4441,19 +4653,19 @@
       </c>
       <c r="B7">
         <f>CODE(MID('Constant Change'!D$1,Sheet2!A7,1))</f>
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C10" si="0">MOD(B7,16)</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <f t="shared" ref="D7:D10" si="1">MOD((B7-C7)/16,16)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E10" ca="1" si="2">INDIRECT("R"&amp;(C7+1)&amp;"C"&amp;(D7+7),0)</f>
-        <v>839</v>
+        <v>331</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -4513,11 +4725,11 @@
       </c>
       <c r="B8">
         <f>CODE(MID('Constant Change'!D$1,Sheet2!A8,1))</f>
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
@@ -4525,7 +4737,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>383</v>
+        <v>839</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -4585,19 +4797,19 @@
       </c>
       <c r="B9">
         <f>CODE(MID('Constant Change'!D$1,Sheet2!A9,1))</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>769</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -4657,7 +4869,7 @@
       </c>
       <c r="B10">
         <f>CODE(MID('Constant Change'!D$1,Sheet2!A10,1))</f>
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -4665,11 +4877,11 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -4729,7 +4941,7 @@
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
-        <v>21859</v>
+        <v>25621</v>
       </c>
       <c r="F11">
         <v>1103515245</v>
@@ -4792,7 +5004,7 @@
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*F11+F12,F13)</f>
-        <v>13664</v>
+        <v>13098</v>
       </c>
       <c r="C12">
         <f ca="1">MOD(B12,2)</f>
@@ -4800,7 +5012,7 @@
       </c>
       <c r="D12">
         <f ca="1">B12/F$13</f>
-        <v>0.4169921875</v>
+        <v>0.39971923828125</v>
       </c>
       <c r="E12">
         <f ca="1">IF(D12&lt;0.25,0,IF(D12&lt;0.5,1,IF(D12&lt;0.75,3,4)))</f>
@@ -4867,19 +5079,19 @@
       </c>
       <c r="B13" s="3">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
-        <v>10777</v>
+        <v>17691</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:C33" ca="1" si="4">IF(D13&lt;0.5,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D33" ca="1" si="5">B13/F$13</f>
-        <v>0.328887939453125</v>
+        <v>0.539886474609375</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E33" ca="1" si="6">IF(D13&lt;0.25,0,IF(D13&lt;0.5,1,IF(D13&lt;0.75,3,4)))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>32768</v>
@@ -4942,19 +5154,19 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>15070</v>
+        <v>22200</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45989990234375</v>
+        <v>0.677490234375</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -5014,19 +5226,19 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>25791</v>
+        <v>11409</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.787078857421875</v>
+        <v>0.348175048828125</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -5086,7 +5298,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>18316</v>
+        <v>22518</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="4"/>
@@ -5094,7 +5306,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5589599609375</v>
+        <v>0.68719482421875</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="6"/>
@@ -5158,19 +5370,19 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>20181</v>
+        <v>6135</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.615875244140625</v>
+        <v>0.187225341796875</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -5230,7 +5442,7 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9962</v>
+        <v>9828</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="4"/>
@@ -5238,7 +5450,7 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30401611328125</v>
+        <v>0.2999267578125</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="6"/>
@@ -5251,7 +5463,7 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>3547</v>
+        <v>205</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="4"/>
@@ -5259,7 +5471,7 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.108245849609375</v>
+        <v>6.256103515625E-3</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="6"/>
@@ -5272,7 +5484,7 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>20600</v>
+        <v>32130</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="4"/>
@@ -5280,11 +5492,11 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.628662109375</v>
+        <v>0.98052978515625</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -5293,7 +5505,7 @@
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>849</v>
+        <v>15507</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="4"/>
@@ -5301,11 +5513,11 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5909423828125E-2</v>
+        <v>0.473236083984375</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -5314,7 +5526,7 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>18358</v>
+        <v>17616</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="4"/>
@@ -5322,7 +5534,7 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56024169921875</v>
+        <v>0.53759765625</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="6"/>
@@ -5336,19 +5548,19 @@
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>11447</v>
+        <v>23753</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.349334716796875</v>
+        <v>0.724884033203125</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" s="3"/>
     </row>
@@ -5358,7 +5570,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>31780</v>
+        <v>28622</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="4"/>
@@ -5366,7 +5578,7 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.9698486328125</v>
+        <v>0.87347412109375</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="6"/>
@@ -5380,7 +5592,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>909</v>
+        <v>3823</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
@@ -5388,7 +5600,7 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7740478515625E-2</v>
+        <v>0.116668701171875</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="6"/>
@@ -5402,19 +5614,19 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>10562</v>
+        <v>24060</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32232666015625</v>
+        <v>0.7342529296875</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" s="3"/>
     </row>
@@ -5424,7 +5636,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>23891</v>
+        <v>31877</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
@@ -5432,11 +5644,11 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.729095458984375</v>
+        <v>0.972808837890625</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27" s="3"/>
     </row>
@@ -5446,7 +5658,7 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>13968</v>
+        <v>15066</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
@@ -5454,7 +5666,7 @@
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42626953125</v>
+        <v>0.45977783203125</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="6"/>
@@ -5468,19 +5680,19 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>19337</v>
+        <v>11019</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.590118408203125</v>
+        <v>0.336273193359375</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29" s="3"/>
     </row>
@@ -5490,19 +5702,19 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6030</v>
+        <v>24040</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18402099609375</v>
+        <v>0.733642578125</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="3"/>
     </row>
@@ -5512,7 +5724,7 @@
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>31663</v>
+        <v>23553</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
@@ -5520,11 +5732,11 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.966278076171875</v>
+        <v>0.718780517578125</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" s="3"/>
     </row>
@@ -5534,7 +5746,7 @@
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>11196</v>
+        <v>10918</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
@@ -5542,7 +5754,7 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3416748046875</v>
+        <v>0.33319091796875</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="6"/>
@@ -5556,19 +5768,19 @@
       </c>
       <c r="B33" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5957</v>
+        <v>27879</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.181793212890625</v>
+        <v>0.850799560546875</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="3"/>
     </row>

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{1472CDA9-D3B8-409B-822C-E7FBDD5BD073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{50845D27-8CDF-4B92-B801-3B5B93877576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="525" windowWidth="22395" windowHeight="14070" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>Period</t>
   </si>
@@ -280,40 +280,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Percent Change</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = Relative Change = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Relative Growth Rate</t>
-    </r>
-  </si>
-  <si>
     <t>So the model derived here is the same if we model a fixed relative growth rate (per period) or a fixed percentage change (per period). The period can be any fixed amount of time, e.g., year, day, hour, etc.</t>
   </si>
   <si>
@@ -406,13 +372,20 @@
   </si>
   <si>
     <t>Enter your name in D1 on the first tab.</t>
+  </si>
+  <si>
+    <t>Video explaining this.
+ Taken from office hours.</t>
+  </si>
+  <si>
+    <t>Percent Change = Relative Change = Relative Growth Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,6 +433,14 @@
       <color theme="1"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1013,11 +994,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1183,6 +1165,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,14 +1198,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1210,41 +1252,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1281,60 +1320,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1343,11 +1328,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1973,6 +1959,118 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBF7BCF-4198-42C7-AB9F-8C82C174BAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172576" y="333375"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F25413-3557-4D1E-BB59-DFC2202B265B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172576" y="333375"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -2055,8 +2153,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{80033BC4-3AB5-492B-A411-4E7241F20D8D}">
-  <header guid="{80033BC4-3AB5-492B-A411-4E7241F20D8D}" dateTime="2021-04-19T11:40:23" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1C7E50F4-8555-425E-9B6A-07FFD27C16D4}">
+  <header guid="{1C7E50F4-8555-425E-9B6A-07FFD27C16D4}" dateTime="2021-05-27T17:02:31" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="5">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2074,7 +2172,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{80033BC4-3AB5-492B-A411-4E7241F20D8D}" name="Richard Ketchersid" id="-1739552513" dateTime="2021-04-19T11:40:23"/>
+  <userInfo guid="{1C7E50F4-8555-425E-9B6A-07FFD27C16D4}" name="Richard Ketchersid" id="-1739530072" dateTime="2021-05-27T17:02:32"/>
 </users>
 </file>
 
@@ -2375,10 +2473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6510FEE2-CD01-4CA1-A488-F59DAFBFCB6B}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2388,101 +2486,111 @@
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" thickBot="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:16" ht="17.25" thickBot="1">
+      <c r="A1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="63" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="65"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="E2" s="66" t="s">
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="E2" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="E5" s="66" t="s">
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1">
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="M4" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="E5" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -2495,15 +2603,15 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -2522,22 +2630,22 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.1712204007285916E-2</v>
       </c>
-      <c r="F9" s="54" t="str">
+      <c r="F9" s="62" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 34.82</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="54" t="str">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="62" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(3.17%) = Q₀∙(1 + 3.17%)</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -2556,22 +2664,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.0737451669285543E-2</v>
       </c>
-      <c r="F10" s="54" t="str">
+      <c r="F10" s="62" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;ROUND(D10,2)&amp;")"</f>
         <v>Q₂ = Q₁ + 34.82 = Q₀ + 2∙(34.82)</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="54" t="str">
+      <c r="G10" s="63"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="62" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(3.07%) = Q₁∙(1 + 3.07%)</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -2590,22 +2698,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.9820835188927974E-2</v>
       </c>
-      <c r="F11" s="54" t="str">
+      <c r="F11" s="62" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;" = "&amp;B$8&amp;" + "&amp;A11&amp;"∙("&amp;ROUND(D11,2)&amp;")"</f>
         <v>Q₃ = Q₂ + 34.82 = Q₀ + 3∙(34.82)</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="54" t="str">
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="62" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(2.98%) = Q₂∙(1 + 2.98%)</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -2624,22 +2732,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8957304193070854E-2</v>
       </c>
-      <c r="F12" s="54" t="str">
-        <f t="shared" ref="F12:F20" ca="1" si="3">B12&amp;" = "&amp;B11&amp;" + "&amp;ROUND(D12,2)&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;ROUND(D12,2)&amp;")"</f>
+      <c r="F12" s="62" t="str">
+        <f t="shared" ref="F12:F18" ca="1" si="3">B12&amp;" = "&amp;B11&amp;" + "&amp;ROUND(D12,2)&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;ROUND(D12,2)&amp;")"</f>
         <v>Q₄ = Q₃ + 34.82 = Q₀ + 4∙(34.82)</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="54" t="str">
+      <c r="G12" s="63"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="62" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + Q₃∙(2.9%) = Q₃∙(1 + 2.9%)</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -2658,22 +2766,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8142376826587379E-2</v>
       </c>
-      <c r="F13" s="54" t="str">
+      <c r="F13" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + 34.82 = Q₀ + 5∙(34.82)</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="54" t="str">
+      <c r="G13" s="63"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="62" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + Q₄∙(2.81%) = Q₄∙(1 + 2.81%)</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.6" customHeight="1">
+    <row r="14" spans="1:16" ht="15.6" customHeight="1">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -2692,22 +2800,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.7372061944815673E-2</v>
       </c>
-      <c r="F14" s="54" t="str">
+      <c r="F14" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + 34.82 = Q₀ + 6∙(34.82)</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="54" t="str">
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="62" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + Q₅∙(2.74%) = Q₅∙(1 + 2.74%)</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15.6" customHeight="1">
+    <row r="15" spans="1:16" ht="15.6" customHeight="1">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -2726,22 +2834,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.6642793744070081E-2</v>
       </c>
-      <c r="F15" s="54" t="str">
+      <c r="F15" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + 34.82 = Q₀ + 7∙(34.82)</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="54" t="str">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="62" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + Q₆∙(2.66%) = Q₆∙(1 + 2.66%)</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="15.6" customHeight="1">
+    <row r="16" spans="1:16" ht="15.6" customHeight="1">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -2760,19 +2868,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5951376570721552E-2</v>
       </c>
-      <c r="F16" s="54" t="str">
+      <c r="F16" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + 34.82 = Q₀ + 8∙(34.82)</v>
       </c>
-      <c r="G16" s="55"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="54" t="str">
+      <c r="G16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="62" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + Q₇∙(2.6%) = Q₇∙(1 + 2.6%)</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="56"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2794,19 +2902,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5294938106584564E-2</v>
       </c>
-      <c r="F17" s="54" t="str">
+      <c r="F17" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + 34.82 = Q₀ + 9∙(34.82)</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="54" t="str">
+      <c r="G17" s="63"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="62" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + Q₈∙(2.53%) = Q₈∙(1 + 2.53%)</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2828,19 +2936,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.4670889484051051E-2</v>
       </c>
-      <c r="F18" s="54" t="str">
+      <c r="F18" s="62" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₁₀ = Q₉ + 34.82 = Q₀ + 10∙(34.82)</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="54" t="str">
+      <c r="G18" s="63"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="62" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(2.47%) = Q₉∙(1 + 2.47%)</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="56"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -2859,18 +2967,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="54" t="str">
+      <c r="F19" s="62" t="str">
         <f>A19</f>
         <v>⋮</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="54" t="s">
+      <c r="G19" s="63"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="56"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -2887,39 +2995,37 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="60" t="str">
+      <c r="F20" s="80" t="str">
         <f ca="1">B20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;ROUND(D20,2)&amp;")"</f>
         <v>Qₙ = Q₀ + n∙(34.82)</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="60" t="s">
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="62"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="82"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="P16" sqref="P16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="33">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+  <mergeCells count="34">
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -2936,25 +3042,32 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M4:O5" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{B7474ABE-EF49-4165-8D07-B721CC234856}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04505569-1A4C-40AA-9992-64984D6C147A}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2965,96 +3078,108 @@
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E1" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
-    </row>
-    <row r="2" spans="1:13">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E1" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="E5" s="66" t="s">
+      <c r="E2" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1">
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="M3" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="E5" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="57" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -3067,16 +3192,16 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="64"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -3095,22 +3220,22 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F9" s="89" t="str">
+      <c r="F9" s="83" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 3.82</v>
       </c>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="54" t="str">
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="62" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(0.35%) = Q₀∙(1 + 0.35%)</v>
       </c>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -3129,22 +3254,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F10" s="89" t="str">
+      <c r="F10" s="83" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + 3.83</v>
       </c>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="54" t="str">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="62" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(0.35%) = Q₁∙(1 + 0.35%) = Q₀∙(1 + 0.35%)²</v>
       </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -3163,22 +3288,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F11" s="89" t="str">
+      <c r="F11" s="83" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + 3.85</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="54" t="str">
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="62" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(0.35%) = Q₂∙(1 + 0.35%) = Q₀∙(1 + 0.35%)³</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="56"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -3197,22 +3322,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F12" s="89" t="str">
+      <c r="F12" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + 3.86</v>
       </c>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="54" t="str">
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="62" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(0.35%) = Q₃∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁴</v>
       </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="56"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="64"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -3231,22 +3356,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F13" s="89" t="str">
+      <c r="F13" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + 3.87</v>
       </c>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="54" t="str">
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="62" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(0.35%) = Q₄∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁵</v>
       </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="56"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" customHeight="1">
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" customHeight="1">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -3265,22 +3390,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F14" s="89" t="str">
+      <c r="F14" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + 3.89</v>
       </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="54" t="str">
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="62" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(0.35%) = Q₅∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁶</v>
       </c>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" customHeight="1">
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.6" customHeight="1">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -3299,22 +3424,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F15" s="89" t="str">
+      <c r="F15" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + 3.9</v>
       </c>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="54" t="str">
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="62" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(0.35%) = Q₆∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁷</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="56"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" customHeight="1">
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.6" customHeight="1">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -3333,20 +3458,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F16" s="89" t="str">
+      <c r="F16" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + 3.92</v>
       </c>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="54" t="str">
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="62" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(0.35%) = Q₇∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁸</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="64"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3367,20 +3492,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F17" s="89" t="str">
+      <c r="F17" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + 3.93</v>
       </c>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="54" t="str">
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="62" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(0.35%) = Q₈∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁹</v>
       </c>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="56"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="64"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3401,20 +3526,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F18" s="89" t="str">
+      <c r="F18" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + 3.94</v>
       </c>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="54" t="str">
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="62" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(0.35%) = Q₉∙(1 + 0.35%) = Q₀∙(1 + 0.35%)¹⁰</v>
       </c>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="56"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="64"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3432,18 +3557,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="54" t="s">
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="56"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="64"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3460,31 +3585,48 @@
         <f ca="1">E18</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F20" s="95" t="str">
+      <c r="F20" s="86" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="92" t="str">
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="88" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + 0.35%)ⁿ</v>
       </c>
-      <c r="J20" s="93"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="93"/>
-      <c r="M20" s="94"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <customSheetViews>
-    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="F27" sqref="F27"/>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" scale="115">
+      <selection activeCell="M2" sqref="M2:P5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="M3:O4"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F9:H9"/>
@@ -3501,25 +3643,13 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M3:O4" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{D9262481-9EDA-481F-B42B-0C6411D8AE1E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3542,82 +3672,82 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="F2" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="F2" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
-      <c r="K4" s="75" t="s">
+      <c r="A4" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="K4" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="95"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="76"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="19" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
-      <c r="K6" s="20" t="s">
+      <c r="L6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="21" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
+      <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="K7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
@@ -3631,32 +3761,32 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="K8" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="K9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="L9" s="25" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="10" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="98" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="99" t="s">
+      <c r="A10" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="100" t="s">
-        <v>52</v>
+      <c r="D10" s="57" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
@@ -3667,15 +3797,15 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="F11" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
       <c r="K11" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="42"/>
     </row>
@@ -3689,13 +3819,13 @@
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
       <c r="K12" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" s="43"/>
     </row>
@@ -3720,15 +3850,15 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
-      <c r="F14" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="F14" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="44"/>
     </row>
@@ -3742,11 +3872,11 @@
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16">
@@ -3758,11 +3888,11 @@
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17">
@@ -3785,13 +3915,13 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
-      <c r="F18" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="F18" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1">
@@ -3804,13 +3934,13 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
-      <c r="F19" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="F19" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1">
@@ -3823,13 +3953,13 @@
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
-      <c r="F20" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="F20" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -3932,82 +4062,82 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="F2" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="F2" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="K4" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79"/>
-      <c r="K4" s="104" t="s">
+      <c r="L4" s="106"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
+      <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="105"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="19" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
+      <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
-      <c r="K6" s="20" t="s">
+      <c r="L6" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="21" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
+      <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="K7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>61</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
@@ -4021,32 +4151,32 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="K8" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="K9" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
@@ -4057,15 +4187,15 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="F11" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
       <c r="K11" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="42"/>
     </row>
@@ -4079,13 +4209,13 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
       <c r="K12" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" s="43"/>
     </row>
@@ -4111,15 +4241,15 @@
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="68"/>
+      <c r="F14" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
       <c r="K14" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="44"/>
     </row>
@@ -4133,11 +4263,11 @@
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16">
@@ -4149,11 +4279,11 @@
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="74"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17">
@@ -4176,13 +4306,13 @@
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
-      <c r="F18" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="59"/>
+      <c r="F18" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1">
@@ -4195,13 +4325,13 @@
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
-      <c r="F19" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="59"/>
+      <c r="F19" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1">
@@ -4214,13 +4344,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
-      <c r="F20" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="59"/>
+      <c r="F20" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{50845D27-8CDF-4B92-B801-3B5B93877576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{2D8BCA47-7846-4265-911E-F070A8A4908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="525" windowWidth="22395" windowHeight="14070" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Constant Percent Change" sheetId="2" r:id="rId2"/>
     <sheet name="Puzzle 1" sheetId="3" r:id="rId3"/>
     <sheet name="Puzzle 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$12:$D$33</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
   <si>
     <t>Period</t>
   </si>
@@ -380,12 +381,15 @@
   <si>
     <t>Percent Change = Relative Change = Relative Growth Rate</t>
   </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,6 +442,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -999,7 +1011,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1180,6 +1192,27 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,15 +1222,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1244,13 +1268,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1258,23 +1279,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1328,8 +1343,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2153,14 +2168,15 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1C7E50F4-8555-425E-9B6A-07FFD27C16D4}">
-  <header guid="{1C7E50F4-8555-425E-9B6A-07FFD27C16D4}" dateTime="2021-05-27T17:02:31" maxSheetId="6" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CC2CE414-A4DD-442E-8810-549191870E5A}">
+  <header guid="{CC2CE414-A4DD-442E-8810-549191870E5A}" dateTime="2022-07-20T13:55:43" maxSheetId="7" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="6">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
       <sheetId val="4"/>
       <sheetId val="5"/>
+      <sheetId val="6"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -2172,7 +2188,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{1C7E50F4-8555-425E-9B6A-07FFD27C16D4}" name="Richard Ketchersid" id="-1739530072" dateTime="2021-05-27T17:02:32"/>
+  <userInfo guid="{CC2CE414-A4DD-442E-8810-549191870E5A}" name="Richard Ketchersid" id="-1739530381" dateTime="2022-07-20T13:55:43"/>
 </users>
 </file>
 
@@ -2487,108 +2503,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
-      <c r="M4" s="107" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="M4" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="59" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="5">
@@ -2603,13 +2619,13 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5">
@@ -2630,19 +2646,19 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.1712204007285916E-2</v>
       </c>
-      <c r="F9" s="62" t="str">
+      <c r="F9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 34.82</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="62" t="str">
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(3.17%) = Q₀∙(1 + 3.17%)</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:16">
@@ -2664,19 +2680,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.0737451669285543E-2</v>
       </c>
-      <c r="F10" s="62" t="str">
+      <c r="F10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;ROUND(D10,2)&amp;")"</f>
         <v>Q₂ = Q₁ + 34.82 = Q₀ + 2∙(34.82)</v>
       </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="62" t="str">
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(3.07%) = Q₁∙(1 + 3.07%)</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:16">
@@ -2698,19 +2714,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.9820835188927974E-2</v>
       </c>
-      <c r="F11" s="62" t="str">
+      <c r="F11" s="60" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;" = "&amp;B$8&amp;" + "&amp;A11&amp;"∙("&amp;ROUND(D11,2)&amp;")"</f>
         <v>Q₃ = Q₂ + 34.82 = Q₀ + 3∙(34.82)</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="62" t="str">
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="60" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(2.98%) = Q₂∙(1 + 2.98%)</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:16">
@@ -2732,19 +2748,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8957304193070854E-2</v>
       </c>
-      <c r="F12" s="62" t="str">
+      <c r="F12" s="60" t="str">
         <f t="shared" ref="F12:F18" ca="1" si="3">B12&amp;" = "&amp;B11&amp;" + "&amp;ROUND(D12,2)&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;ROUND(D12,2)&amp;")"</f>
         <v>Q₄ = Q₃ + 34.82 = Q₀ + 4∙(34.82)</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="62" t="str">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + Q₃∙(2.9%) = Q₃∙(1 + 2.9%)</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:16">
@@ -2766,19 +2782,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8142376826587379E-2</v>
       </c>
-      <c r="F13" s="62" t="str">
+      <c r="F13" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + 34.82 = Q₀ + 5∙(34.82)</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="62" t="str">
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + Q₄∙(2.81%) = Q₄∙(1 + 2.81%)</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" customHeight="1">
@@ -2800,19 +2816,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.7372061944815673E-2</v>
       </c>
-      <c r="F14" s="62" t="str">
+      <c r="F14" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + 34.82 = Q₀ + 6∙(34.82)</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="62" t="str">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + Q₅∙(2.74%) = Q₅∙(1 + 2.74%)</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" customHeight="1">
@@ -2834,19 +2850,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.6642793744070081E-2</v>
       </c>
-      <c r="F15" s="62" t="str">
+      <c r="F15" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + 34.82 = Q₀ + 7∙(34.82)</v>
       </c>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="62" t="str">
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + Q₆∙(2.66%) = Q₆∙(1 + 2.66%)</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" customHeight="1">
@@ -2868,19 +2884,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5951376570721552E-2</v>
       </c>
-      <c r="F16" s="62" t="str">
+      <c r="F16" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + 34.82 = Q₀ + 8∙(34.82)</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="62" t="str">
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + Q₇∙(2.6%) = Q₇∙(1 + 2.6%)</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2902,19 +2918,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5294938106584564E-2</v>
       </c>
-      <c r="F17" s="62" t="str">
+      <c r="F17" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + 34.82 = Q₀ + 9∙(34.82)</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="62" t="str">
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + Q₈∙(2.53%) = Q₈∙(1 + 2.53%)</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2936,19 +2952,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.4670889484051051E-2</v>
       </c>
-      <c r="F18" s="62" t="str">
+      <c r="F18" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₁₀ = Q₉ + 34.82 = Q₀ + 10∙(34.82)</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="62" t="str">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="60" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(2.47%) = Q₉∙(1 + 2.47%)</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -2967,18 +2983,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="62" t="str">
+      <c r="F19" s="60" t="str">
         <f>A19</f>
         <v>⋮</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="62" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -2995,18 +3011,18 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="80" t="str">
+      <c r="F20" s="63" t="str">
         <f ca="1">B20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;ROUND(D20,2)&amp;")"</f>
         <v>Qₙ = Q₀ + n∙(34.82)</v>
       </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="80" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="82"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
@@ -3018,14 +3034,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -3042,16 +3060,14 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M4:O5" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{B7474ABE-EF49-4165-8D07-B721CC234856}"/>
@@ -3079,105 +3095,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="61"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="M3" s="107" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="M3" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E6" s="77"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="59" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="61"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5">
@@ -3192,14 +3208,14 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5">
@@ -3220,20 +3236,20 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F9" s="83" t="str">
+      <c r="F9" s="86" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 3.82</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="62" t="str">
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(0.35%) = Q₀∙(1 + 0.35%)</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5">
@@ -3254,20 +3270,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F10" s="83" t="str">
+      <c r="F10" s="86" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + 3.83</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="62" t="str">
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(0.35%) = Q₁∙(1 + 0.35%) = Q₀∙(1 + 0.35%)²</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="64"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5">
@@ -3288,20 +3304,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F11" s="83" t="str">
+      <c r="F11" s="86" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + 3.85</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="62" t="str">
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="60" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(0.35%) = Q₂∙(1 + 0.35%) = Q₀∙(1 + 0.35%)³</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="64"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5">
@@ -3322,20 +3338,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F12" s="83" t="str">
+      <c r="F12" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + 3.86</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="62" t="str">
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="60" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(0.35%) = Q₃∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁴</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="64"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5">
@@ -3356,20 +3372,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F13" s="83" t="str">
+      <c r="F13" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + 3.87</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="62" t="str">
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="60" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(0.35%) = Q₄∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁵</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="64"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" customHeight="1">
       <c r="A14" s="5">
@@ -3390,20 +3406,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F14" s="83" t="str">
+      <c r="F14" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + 3.89</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="62" t="str">
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="60" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(0.35%) = Q₅∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁶</v>
       </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="64"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" customHeight="1">
       <c r="A15" s="5">
@@ -3424,20 +3440,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F15" s="83" t="str">
+      <c r="F15" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + 3.9</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="62" t="str">
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="60" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(0.35%) = Q₆∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁷</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1">
       <c r="A16" s="5">
@@ -3458,20 +3474,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F16" s="83" t="str">
+      <c r="F16" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + 3.92</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="62" t="str">
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="60" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(0.35%) = Q₇∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁸</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="64"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3492,20 +3508,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F17" s="83" t="str">
+      <c r="F17" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + 3.93</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="62" t="str">
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="60" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(0.35%) = Q₈∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁹</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3526,20 +3542,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F18" s="83" t="str">
+      <c r="F18" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + 3.94</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="62" t="str">
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="60" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(0.35%) = Q₉∙(1 + 0.35%) = Q₀∙(1 + 0.35%)¹⁰</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="64"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3557,18 +3573,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="62" t="s">
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="64"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3585,12 +3601,12 @@
         <f ca="1">E18</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F20" s="86" t="str">
+      <c r="F20" s="84" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="88" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + 0.35%)ⁿ</v>
@@ -3610,6 +3626,23 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="M3:O4"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I9:M9"/>
@@ -3626,23 +3659,6 @@
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3:O4" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{D9262481-9EDA-481F-B42B-0C6411D8AE1E}"/>
@@ -3672,43 +3688,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
-      <c r="K4" s="94" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="95"/>
+      <c r="L4" s="96"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
       <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
@@ -3717,15 +3733,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
@@ -3734,15 +3750,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
       <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
@@ -3797,13 +3813,13 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
@@ -3819,11 +3835,11 @@
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
       <c r="K12" s="28" t="s">
         <v>67</v>
       </c>
@@ -3850,13 +3866,13 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="29" t="s">
         <v>68</v>
       </c>
@@ -3872,11 +3888,11 @@
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16">
@@ -3888,11 +3904,11 @@
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17">
@@ -3915,13 +3931,13 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1">
@@ -3934,13 +3950,13 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1">
@@ -3953,13 +3969,13 @@
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -4062,43 +4078,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
-      <c r="K4" s="105" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="106"/>
+      <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
       <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
@@ -4107,15 +4123,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
@@ -4124,15 +4140,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
       <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
@@ -4187,13 +4203,13 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
@@ -4209,11 +4225,11 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
       <c r="K12" s="28" t="s">
         <v>67</v>
       </c>
@@ -4241,13 +4257,13 @@
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="28" t="s">
         <v>68</v>
       </c>
@@ -4263,11 +4279,11 @@
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16">
@@ -4279,11 +4295,11 @@
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17">
@@ -4306,13 +4322,13 @@
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1">
@@ -4325,13 +4341,13 @@
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1">
@@ -4344,13 +4360,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -4431,6 +4447,82 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D59B824-3E06-4882-96D4-0DA92A742EAC}">
+  <dimension ref="C6:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="3:8">
+      <c r="C6" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" state="hidden">
+      <selection activeCell="K23" sqref="K23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C6:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B50B47-7081-4CB7-870D-CE3CF3EB27FC}">
   <dimension ref="A1:W45"/>
   <sheetViews>

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{2D8BCA47-7846-4265-911E-F070A8A4908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{4228DED4-A826-4F7D-8C9C-0C2105723F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3735" yWindow="525" windowWidth="22395" windowHeight="14070" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Constant Percent Change" sheetId="2" r:id="rId2"/>
     <sheet name="Puzzle 1" sheetId="3" r:id="rId3"/>
     <sheet name="Puzzle 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$12:$D$33</definedName>
@@ -418,12 +418,6 @@
       <name val="Arial Unicode MS"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Bradley Hand ITC"/>
-      <family val="4"/>
-    </font>
-    <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +447,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Bradley Hand ITC"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1009,7 +1010,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1189,11 +1190,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1204,6 +1208,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,59 +1262,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1273,31 +1289,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1343,8 +1341,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2168,7 +2169,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CC2CE414-A4DD-442E-8810-549191870E5A}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B4303B6A-9F31-4713-B65B-F1AB3F7509CB}" diskRevisions="1" revisionId="1" version="2">
   <header guid="{CC2CE414-A4DD-442E-8810-549191870E5A}" dateTime="2022-07-20T13:55:43" maxSheetId="7" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
@@ -2179,6 +2180,16 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
+  <header guid="{B4303B6A-9F31-4713-B65B-F1AB3F7509CB}" dateTime="2022-07-20T14:40:57" maxSheetId="7" userName="Richard Ketchersid" r:id="rId2" minRId="1">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="6"/>
+      <sheetId val="5"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -2186,9 +2197,39 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rdn rId="1" name="_xlchart.v1.0" hidden="1" oldHidden="1"/>
+  <rfmt sheetId="1" sqref="D1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="D1" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcv guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" action="delete"/>
+  <rcv guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{CC2CE414-A4DD-442E-8810-549191870E5A}" name="Richard Ketchersid" id="-1739530381" dateTime="2022-07-20T13:55:43"/>
+  <userInfo guid="{B4303B6A-9F31-4713-B65B-F1AB3F7509CB}" name="Richard Ketchersid" id="-1739561188" dateTime="2022-07-20T14:39:56"/>
 </users>
 </file>
 
@@ -2492,119 +2533,119 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:16" ht="18" thickBot="1">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="M4" s="59" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
+      <c r="M4" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="66" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="5">
@@ -2619,13 +2660,13 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="63"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5">
@@ -2646,19 +2687,19 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.1712204007285916E-2</v>
       </c>
-      <c r="F9" s="60" t="str">
+      <c r="F9" s="61" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 34.82</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="60" t="str">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="61" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(3.17%) = Q₀∙(1 + 3.17%)</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:16">
@@ -2680,19 +2721,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.0737451669285543E-2</v>
       </c>
-      <c r="F10" s="60" t="str">
+      <c r="F10" s="61" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;ROUND(D10,2)&amp;")"</f>
         <v>Q₂ = Q₁ + 34.82 = Q₀ + 2∙(34.82)</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="60" t="str">
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="61" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(3.07%) = Q₁∙(1 + 3.07%)</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:16">
@@ -2714,19 +2755,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.9820835188927974E-2</v>
       </c>
-      <c r="F11" s="60" t="str">
+      <c r="F11" s="61" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;" = "&amp;B$8&amp;" + "&amp;A11&amp;"∙("&amp;ROUND(D11,2)&amp;")"</f>
         <v>Q₃ = Q₂ + 34.82 = Q₀ + 3∙(34.82)</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="60" t="str">
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="61" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(2.98%) = Q₂∙(1 + 2.98%)</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:16">
@@ -2748,19 +2789,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8957304193070854E-2</v>
       </c>
-      <c r="F12" s="60" t="str">
+      <c r="F12" s="61" t="str">
         <f t="shared" ref="F12:F18" ca="1" si="3">B12&amp;" = "&amp;B11&amp;" + "&amp;ROUND(D12,2)&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;ROUND(D12,2)&amp;")"</f>
         <v>Q₄ = Q₃ + 34.82 = Q₀ + 4∙(34.82)</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="60" t="str">
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="61" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + Q₃∙(2.9%) = Q₃∙(1 + 2.9%)</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:16">
@@ -2782,19 +2823,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8142376826587379E-2</v>
       </c>
-      <c r="F13" s="60" t="str">
+      <c r="F13" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + 34.82 = Q₀ + 5∙(34.82)</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="60" t="str">
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="61" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + Q₄∙(2.81%) = Q₄∙(1 + 2.81%)</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" customHeight="1">
@@ -2816,19 +2857,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.7372061944815673E-2</v>
       </c>
-      <c r="F14" s="60" t="str">
+      <c r="F14" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + 34.82 = Q₀ + 6∙(34.82)</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="60" t="str">
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="61" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + Q₅∙(2.74%) = Q₅∙(1 + 2.74%)</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" customHeight="1">
@@ -2850,19 +2891,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.6642793744070081E-2</v>
       </c>
-      <c r="F15" s="60" t="str">
+      <c r="F15" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + 34.82 = Q₀ + 7∙(34.82)</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="60" t="str">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="61" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + Q₆∙(2.66%) = Q₆∙(1 + 2.66%)</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" customHeight="1">
@@ -2884,19 +2925,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5951376570721552E-2</v>
       </c>
-      <c r="F16" s="60" t="str">
+      <c r="F16" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + 34.82 = Q₀ + 8∙(34.82)</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="60" t="str">
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="61" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + Q₇∙(2.6%) = Q₇∙(1 + 2.6%)</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2918,19 +2959,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5294938106584564E-2</v>
       </c>
-      <c r="F17" s="60" t="str">
+      <c r="F17" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + 34.82 = Q₀ + 9∙(34.82)</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="60" t="str">
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="61" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + Q₈∙(2.53%) = Q₈∙(1 + 2.53%)</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2952,19 +2993,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.4670889484051051E-2</v>
       </c>
-      <c r="F18" s="60" t="str">
+      <c r="F18" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₁₀ = Q₉ + 34.82 = Q₀ + 10∙(34.82)</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="60" t="str">
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="61" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(2.47%) = Q₉∙(1 + 2.47%)</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -2983,18 +3024,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="60" t="str">
+      <c r="F19" s="61" t="str">
         <f>A19</f>
         <v>⋮</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="60" t="s">
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="63"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3011,39 +3052,37 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="63" t="str">
+      <c r="F20" s="79" t="str">
         <f ca="1">B20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;ROUND(D20,2)&amp;")"</f>
         <v>Qₙ = Q₀ + n∙(34.82)</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="63" t="s">
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="D1" sqref="D1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -3060,14 +3099,16 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M4:O5" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{B7474ABE-EF49-4165-8D07-B721CC234856}"/>
@@ -3095,105 +3136,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="72"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
-      <c r="M3" s="59" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="M3" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="66" t="s">
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="68"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5">
@@ -3208,14 +3249,14 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5">
@@ -3236,20 +3277,20 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F9" s="86" t="str">
+      <c r="F9" s="83" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 3.82</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="60" t="str">
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="61" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(0.35%) = Q₀∙(1 + 0.35%)</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="63"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5">
@@ -3270,20 +3311,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F10" s="86" t="str">
+      <c r="F10" s="83" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + 3.83</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="60" t="str">
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="61" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(0.35%) = Q₁∙(1 + 0.35%) = Q₀∙(1 + 0.35%)²</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="63"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5">
@@ -3304,20 +3345,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F11" s="86" t="str">
+      <c r="F11" s="83" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + 3.85</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="60" t="str">
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="61" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(0.35%) = Q₂∙(1 + 0.35%) = Q₀∙(1 + 0.35%)³</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5">
@@ -3338,20 +3379,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F12" s="86" t="str">
+      <c r="F12" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + 3.86</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="60" t="str">
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="61" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(0.35%) = Q₃∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁴</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5">
@@ -3372,20 +3413,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F13" s="86" t="str">
+      <c r="F13" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + 3.87</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="60" t="str">
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="61" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(0.35%) = Q₄∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁵</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="63"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" customHeight="1">
       <c r="A14" s="5">
@@ -3406,20 +3447,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F14" s="86" t="str">
+      <c r="F14" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + 3.89</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="60" t="str">
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="61" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(0.35%) = Q₅∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁶</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" customHeight="1">
       <c r="A15" s="5">
@@ -3440,20 +3481,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F15" s="86" t="str">
+      <c r="F15" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + 3.9</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="60" t="str">
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="61" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(0.35%) = Q₆∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁷</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1">
       <c r="A16" s="5">
@@ -3474,20 +3515,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F16" s="86" t="str">
+      <c r="F16" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + 3.92</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="60" t="str">
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="61" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(0.35%) = Q₇∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁸</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="63"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3508,20 +3549,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F17" s="86" t="str">
+      <c r="F17" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + 3.93</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="60" t="str">
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="61" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(0.35%) = Q₈∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁹</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3542,20 +3583,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F18" s="86" t="str">
+      <c r="F18" s="83" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + 3.94</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="60" t="str">
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="61" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(0.35%) = Q₉∙(1 + 0.35%) = Q₀∙(1 + 0.35%)¹⁰</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="63"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3573,18 +3614,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="60" t="s">
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3601,20 +3642,20 @@
         <f ca="1">E18</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F20" s="84" t="str">
+      <c r="F20" s="89" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="88" t="str">
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="85" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + 0.35%)ⁿ</v>
       </c>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
@@ -3626,11 +3667,7 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I19:M19"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="E2:K4"/>
@@ -3644,10 +3681,15 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="M3:O4"/>
-    <mergeCell ref="F20:H20"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I10:M10"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="I14:M14"/>
@@ -3658,7 +3700,6 @@
     <mergeCell ref="I17:M17"/>
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3:O4" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{D9262481-9EDA-481F-B42B-0C6411D8AE1E}"/>
@@ -3688,43 +3729,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-      <c r="K4" s="95" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="K4" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="96"/>
+      <c r="L4" s="95"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
       <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
@@ -3733,15 +3774,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
       <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
@@ -3750,15 +3791,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
       <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
@@ -3813,13 +3854,13 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
@@ -3835,11 +3876,11 @@
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
       <c r="K12" s="28" t="s">
         <v>67</v>
       </c>
@@ -3866,13 +3907,13 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="29" t="s">
         <v>68</v>
       </c>
@@ -3888,11 +3929,11 @@
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16">
@@ -3904,11 +3945,11 @@
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17">
@@ -3931,13 +3972,13 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1">
@@ -3950,13 +3991,13 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1">
@@ -3969,13 +4010,13 @@
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -4078,43 +4119,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-      <c r="K4" s="106" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="98"/>
+      <c r="K4" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="107"/>
+      <c r="L4" s="106"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="101"/>
       <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
@@ -4123,15 +4164,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
       <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
@@ -4140,15 +4181,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
       <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
@@ -4203,13 +4244,13 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98"/>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
@@ -4225,11 +4266,11 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
       <c r="K12" s="28" t="s">
         <v>67</v>
       </c>
@@ -4257,13 +4298,13 @@
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="28" t="s">
         <v>68</v>
       </c>
@@ -4279,11 +4320,11 @@
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="75"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16">
@@ -4295,11 +4336,11 @@
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17">
@@ -4322,13 +4363,13 @@
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1">
@@ -4341,13 +4382,13 @@
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1">
@@ -4360,13 +4401,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -4447,82 +4488,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D59B824-3E06-4882-96D4-0DA92A742EAC}">
-  <dimension ref="C6:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="6" spans="3:8">
-      <c r="C6" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" state="hidden">
-      <selection activeCell="K23" sqref="K23"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId1"/>
-    </customSheetView>
-  </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="C6:H11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B50B47-7081-4CB7-870D-CE3CF3EB27FC}">
   <dimension ref="A1:W45"/>
   <sheetViews>
@@ -6054,4 +6019,80 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D59B824-3E06-4882-96D4-0DA92A742EAC}">
+  <dimension ref="C6:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="3:8">
+      <c r="C6" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" state="hidden">
+      <selection activeCell="K23" sqref="K23"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="C6:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{4228DED4-A826-4F7D-8C9C-0C2105723F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{B970C0A6-FF7E-44B5-986B-E0DCB042A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="525" windowWidth="22395" windowHeight="14070" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
+    <workbookView xWindow="2208" yWindow="1092" windowWidth="19800" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Change" sheetId="1" r:id="rId1"/>
     <sheet name="Constant Percent Change" sheetId="2" r:id="rId2"/>
     <sheet name="Puzzle 1" sheetId="3" r:id="rId3"/>
     <sheet name="Puzzle 2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$D$12:$D$33</definedName>
+    <definedName name="Z_86163F03_5311_4FD3_9F34_A891F9AC9F16_.wvu.Rows" localSheetId="2" hidden="1">'Puzzle 1'!$35:$35</definedName>
+    <definedName name="Z_86163F03_5311_4FD3_9F34_A891F9AC9F16_.wvu.Rows" localSheetId="3" hidden="1">'Puzzle 2'!$38:$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" mergeInterval="0" personalView="1" xWindow="249" yWindow="35" windowWidth="1493" windowHeight="938" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" mergeInterval="0" personalView="1" xWindow="184" yWindow="91" windowWidth="1650" windowHeight="938" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="87">
   <si>
     <t>Period</t>
   </si>
@@ -384,12 +386,24 @@
   <si>
     <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
   </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>exponential</t>
+  </si>
+  <si>
+    <t>fixed change</t>
+  </si>
+  <si>
+    <t>relative/percentage change</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +468,13 @@
       <color theme="0"/>
       <name val="Bradley Hand ITC"/>
       <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1012,7 +1033,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1190,6 +1211,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1199,15 +1244,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1253,24 +1289,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,9 +1306,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1344,9 +1368,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2134,8 +2157,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3993173" y="3259015"/>
-              <a:ext cx="4572000" cy="2875085"/>
+              <a:off x="4035083" y="3129475"/>
+              <a:ext cx="4572000" cy="2760785"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2169,8 +2192,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B4303B6A-9F31-4713-B65B-F1AB3F7509CB}" diskRevisions="1" revisionId="1" version="2">
-  <header guid="{CC2CE414-A4DD-442E-8810-549191870E5A}" dateTime="2022-07-20T13:55:43" maxSheetId="7" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4AAF6A0F-9052-4B1C-9B1C-89AE4DCD99AC}">
+  <header guid="{4AAF6A0F-9052-4B1C-9B1C-89AE4DCD99AC}" dateTime="2023-01-23T15:06:27" maxSheetId="7" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="6">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2180,16 +2203,6 @@
       <sheetId val="6"/>
     </sheetIdMap>
   </header>
-  <header guid="{B4303B6A-9F31-4713-B65B-F1AB3F7509CB}" dateTime="2022-07-20T14:40:57" maxSheetId="7" userName="Richard Ketchersid" r:id="rId2" minRId="1">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="6"/>
-      <sheetId val="5"/>
-    </sheetIdMap>
-  </header>
 </headers>
 </file>
 
@@ -2197,39 +2210,9 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rdn rId="1" name="_xlchart.v1.0" hidden="1" oldHidden="1"/>
-  <rfmt sheetId="1" sqref="D1" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="D1" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="D1" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcv guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" action="delete"/>
-  <rcv guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
-  <userInfo guid="{CC2CE414-A4DD-442E-8810-549191870E5A}" name="Richard Ketchersid" id="-1739530381" dateTime="2022-07-20T13:55:43"/>
-  <userInfo guid="{B4303B6A-9F31-4713-B65B-F1AB3F7509CB}" name="Richard Ketchersid" id="-1739561188" dateTime="2022-07-20T14:39:56"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{4AAF6A0F-9052-4B1C-9B1C-89AE4DCD99AC}" name="Richard Ketchersid" id="-1739526258" dateTime="2023-01-23T15:06:27"/>
 </users>
 </file>
 
@@ -2533,119 +2516,119 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="108" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="69"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="M4" s="82" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1">
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="M4" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1">
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+    <row r="6" spans="1:16" ht="15" thickBot="1">
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="58" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="5">
@@ -2660,13 +2643,13 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5">
@@ -2687,19 +2670,19 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.1712204007285916E-2</v>
       </c>
-      <c r="F9" s="61" t="str">
+      <c r="F9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 34.82</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="61" t="str">
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(3.17%) = Q₀∙(1 + 3.17%)</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:16">
@@ -2721,19 +2704,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.0737451669285543E-2</v>
       </c>
-      <c r="F10" s="61" t="str">
+      <c r="F10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;ROUND(D10,2)&amp;")"</f>
         <v>Q₂ = Q₁ + 34.82 = Q₀ + 2∙(34.82)</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="61" t="str">
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(3.07%) = Q₁∙(1 + 3.07%)</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="63"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:16">
@@ -2755,19 +2738,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.9820835188927974E-2</v>
       </c>
-      <c r="F11" s="61" t="str">
+      <c r="F11" s="60" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;" = "&amp;B$8&amp;" + "&amp;A11&amp;"∙("&amp;ROUND(D11,2)&amp;")"</f>
         <v>Q₃ = Q₂ + 34.82 = Q₀ + 3∙(34.82)</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="61" t="str">
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="60" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(2.98%) = Q₂∙(1 + 2.98%)</v>
       </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="63"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:16">
@@ -2789,19 +2772,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8957304193070854E-2</v>
       </c>
-      <c r="F12" s="61" t="str">
+      <c r="F12" s="60" t="str">
         <f t="shared" ref="F12:F18" ca="1" si="3">B12&amp;" = "&amp;B11&amp;" + "&amp;ROUND(D12,2)&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;ROUND(D12,2)&amp;")"</f>
         <v>Q₄ = Q₃ + 34.82 = Q₀ + 4∙(34.82)</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="61" t="str">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + Q₃∙(2.9%) = Q₃∙(1 + 2.9%)</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="63"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:16">
@@ -2823,19 +2806,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8142376826587379E-2</v>
       </c>
-      <c r="F13" s="61" t="str">
+      <c r="F13" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + 34.82 = Q₀ + 5∙(34.82)</v>
       </c>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="61" t="str">
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + Q₄∙(2.81%) = Q₄∙(1 + 2.81%)</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="63"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" customHeight="1">
@@ -2857,19 +2840,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.7372061944815673E-2</v>
       </c>
-      <c r="F14" s="61" t="str">
+      <c r="F14" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + 34.82 = Q₀ + 6∙(34.82)</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="61" t="str">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + Q₅∙(2.74%) = Q₅∙(1 + 2.74%)</v>
       </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="63"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" customHeight="1">
@@ -2891,19 +2874,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.6642793744070081E-2</v>
       </c>
-      <c r="F15" s="61" t="str">
+      <c r="F15" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + 34.82 = Q₀ + 7∙(34.82)</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="61" t="str">
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + Q₆∙(2.66%) = Q₆∙(1 + 2.66%)</v>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="63"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" customHeight="1">
@@ -2925,19 +2908,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5951376570721552E-2</v>
       </c>
-      <c r="F16" s="61" t="str">
+      <c r="F16" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + 34.82 = Q₀ + 8∙(34.82)</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="61" t="str">
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + Q₇∙(2.6%) = Q₇∙(1 + 2.6%)</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2959,19 +2942,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5294938106584564E-2</v>
       </c>
-      <c r="F17" s="61" t="str">
+      <c r="F17" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + 34.82 = Q₀ + 9∙(34.82)</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="61" t="str">
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + Q₈∙(2.53%) = Q₈∙(1 + 2.53%)</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="63"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2993,19 +2976,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.4670889484051051E-2</v>
       </c>
-      <c r="F18" s="61" t="str">
+      <c r="F18" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₁₀ = Q₉ + 34.82 = Q₀ + 10∙(34.82)</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="61" t="str">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="60" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(2.47%) = Q₉∙(1 + 2.47%)</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="63"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -3024,20 +3007,20 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="61" t="str">
+      <c r="F19" s="60" t="str">
         <f>A19</f>
         <v>⋮</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="61" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="63"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -3052,37 +3035,39 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="79" t="str">
+      <c r="F20" s="63" t="str">
         <f ca="1">B20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;ROUND(D20,2)&amp;")"</f>
         <v>Qₙ = Q₀ + n∙(34.82)</v>
       </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="79" t="s">
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="81"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -3099,16 +3084,14 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M4:O5" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{B7474ABE-EF49-4165-8D07-B721CC234856}"/>
@@ -3123,118 +3106,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04505569-1A4C-40AA-9992-64984D6C147A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E1" s="67" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1">
+      <c r="E1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="E3" s="73"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="M3" s="82" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="M3" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="78"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
+    <row r="4" spans="1:17" ht="15" thickBot="1">
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1">
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1">
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="58" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="60"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5">
@@ -3249,14 +3232,14 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5">
@@ -3277,20 +3260,20 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F9" s="83" t="str">
+      <c r="F9" s="84" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 3.82</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="61" t="str">
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(0.35%) = Q₀∙(1 + 0.35%)</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5">
@@ -3311,20 +3294,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F10" s="83" t="str">
+      <c r="F10" s="84" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + 3.83</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="61" t="str">
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(0.35%) = Q₁∙(1 + 0.35%) = Q₀∙(1 + 0.35%)²</v>
       </c>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5">
@@ -3345,20 +3328,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F11" s="83" t="str">
+      <c r="F11" s="84" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + 3.85</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="61" t="str">
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="60" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(0.35%) = Q₂∙(1 + 0.35%) = Q₀∙(1 + 0.35%)³</v>
       </c>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="63"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5">
@@ -3379,20 +3362,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F12" s="83" t="str">
+      <c r="F12" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + 3.86</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="61" t="str">
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="60" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(0.35%) = Q₃∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁴</v>
       </c>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5">
@@ -3413,20 +3396,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F13" s="83" t="str">
+      <c r="F13" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + 3.87</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="61" t="str">
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="60" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(0.35%) = Q₄∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁵</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" customHeight="1">
       <c r="A14" s="5">
@@ -3447,20 +3430,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F14" s="83" t="str">
+      <c r="F14" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + 3.89</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="61" t="str">
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="60" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(0.35%) = Q₅∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁶</v>
       </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" customHeight="1">
       <c r="A15" s="5">
@@ -3481,20 +3464,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F15" s="83" t="str">
+      <c r="F15" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + 3.9</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="61" t="str">
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="60" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(0.35%) = Q₆∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁷</v>
       </c>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="63"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1">
       <c r="A16" s="5">
@@ -3515,20 +3498,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F16" s="83" t="str">
+      <c r="F16" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + 3.92</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="61" t="str">
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="60" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(0.35%) = Q₇∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁸</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3549,20 +3532,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F17" s="83" t="str">
+      <c r="F17" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + 3.93</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="61" t="str">
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="60" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(0.35%) = Q₈∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁹</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="63"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3583,20 +3566,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F18" s="83" t="str">
+      <c r="F18" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + 3.94</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="61" t="str">
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="60" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(0.35%) = Q₉∙(1 + 0.35%) = Q₀∙(1 + 0.35%)¹⁰</v>
       </c>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3614,20 +3597,20 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="83" t="s">
+      <c r="F19" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="61" t="s">
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="63"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1">
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="7" t="s">
         <v>40</v>
       </c>
@@ -3642,31 +3625,48 @@
         <f ca="1">E18</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F20" s="89" t="str">
+      <c r="F20" s="90" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="85" t="str">
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="87" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + 0.35%)ⁿ</v>
       </c>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="87"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <customSheetViews>
-    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" scale="115">
-      <selection activeCell="M2" sqref="M2:P5"/>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
+      <selection activeCell="P16" sqref="P16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="F19:H19"/>
@@ -3683,23 +3683,6 @@
     <mergeCell ref="M3:O4"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="F13:H13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3:O4" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{D9262481-9EDA-481F-B42B-0C6411D8AE1E}"/>
@@ -3712,60 +3695,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF79418-C12E-441C-955A-4392F0CF155C}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="F2" s="91" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1"/>
+    <row r="2" spans="1:12" ht="16.8" thickBot="1">
+      <c r="F2" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
-      <c r="K4" s="94" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="95"/>
+      <c r="L4" s="96"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
       <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
@@ -3774,15 +3757,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
@@ -3791,15 +3774,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
       <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
@@ -3846,7 +3829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -3854,19 +3837,19 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3876,17 +3859,17 @@
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
       <c r="K12" s="28" t="s">
         <v>67</v>
       </c>
       <c r="L12" s="43"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3897,7 +3880,7 @@
       <c r="C13" s="38"/>
       <c r="D13" s="39"/>
     </row>
-    <row r="14" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
+    <row r="14" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3907,13 +3890,13 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="29" t="s">
         <v>68</v>
       </c>
@@ -3929,13 +3912,13 @@
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16">
         <v>5</v>
       </c>
@@ -3945,13 +3928,13 @@
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3962,7 +3945,7 @@
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1">
       <c r="A18">
         <v>7</v>
       </c>
@@ -3972,16 +3955,16 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="45"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3991,16 +3974,16 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20">
         <v>9</v>
       </c>
@@ -4010,13 +3993,13 @@
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -4041,7 +4024,7 @@
       <c r="C22" s="38"/>
       <c r="D22" s="39"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23">
         <v>12</v>
       </c>
@@ -4052,11 +4035,31 @@
       <c r="C23" s="40"/>
       <c r="D23" s="41"/>
     </row>
+    <row r="35" spans="2:5" hidden="1">
+      <c r="B35" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="H28" sqref="H28"/>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" hiddenRows="1">
+      <selection activeCell="G23" sqref="G23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -4071,6 +4074,14 @@
     <mergeCell ref="F14:J16"/>
     <mergeCell ref="F18:J18"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11" xr:uid="{6D73CEBE-C8BD-4FF3-ABFB-507AA62FC536}">
+      <formula1>$B$35:$B$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14" xr:uid="{6C90C944-E220-4790-BE35-43D860625D87}">
+      <formula1>$E$35:$E$36</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
@@ -4101,61 +4112,61 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77757405-FFA4-43AF-9C54-9F380FA82D70}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:12" ht="18.75" thickBot="1">
-      <c r="F2" s="91" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1"/>
+    <row r="2" spans="1:12" ht="16.8" thickBot="1">
+      <c r="F2" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98"/>
-      <c r="K4" s="105" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="106"/>
+      <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="101"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
       <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
@@ -4164,15 +4175,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="99"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
       <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
@@ -4181,15 +4192,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
       <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
@@ -4236,7 +4247,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -4244,19 +4255,19 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
       <c r="L11" s="42"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -4266,17 +4277,17 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
       <c r="K12" s="28" t="s">
         <v>67</v>
       </c>
       <c r="L12" s="43"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4287,7 +4298,7 @@
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
     </row>
-    <row r="14" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
+    <row r="14" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4298,13 +4309,13 @@
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
       <c r="K14" s="28" t="s">
         <v>68</v>
       </c>
@@ -4320,13 +4331,13 @@
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16">
         <v>5</v>
       </c>
@@ -4336,13 +4347,13 @@
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17">
         <v>6</v>
       </c>
@@ -4353,7 +4364,7 @@
       <c r="C17" s="50"/>
       <c r="D17" s="51"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1">
       <c r="A18">
         <v>7</v>
       </c>
@@ -4363,16 +4374,16 @@
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
       <c r="K18" s="45"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19">
         <v>8</v>
       </c>
@@ -4382,16 +4393,16 @@
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20">
         <v>9</v>
       </c>
@@ -4401,13 +4412,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -4432,7 +4443,7 @@
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23">
         <v>12</v>
       </c>
@@ -4443,12 +4454,33 @@
       <c r="C23" s="52"/>
       <c r="D23" s="53"/>
     </row>
+    <row r="38" spans="2:5" hidden="1">
+      <c r="B38" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="109"/>
+      <c r="D38" s="109"/>
+      <c r="E38" s="109" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1">
+      <c r="B39" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
-    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="K25" sqref="K25"/>
+    <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" hiddenRows="1">
+      <selection activeCell="A38" sqref="A38:XFD39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="8">
@@ -4461,7 +4493,16 @@
     <mergeCell ref="F11:J12"/>
     <mergeCell ref="F14:J16"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11" xr:uid="{8388622E-7AED-46B6-AD4A-1316E6FF6241}">
+      <formula1>$B$38:$B$39</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14" xr:uid="{D5D850EE-C94F-4782-A189-8241BB386E7A}">
+      <formula1>$E$38:$E$39</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4495,7 +4536,7 @@
       <selection activeCell="F35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -6029,57 +6070,57 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="6" spans="3:8">
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{B970C0A6-FF7E-44B5-986B-E0DCB042A169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{1D47A7CC-3638-4DCA-8525-E80F32652B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2208" yWindow="1092" windowWidth="19800" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
@@ -341,9 +341,6 @@
     <t>What is the fixed value?</t>
   </si>
   <si>
-    <t>Give the formula:</t>
-  </si>
-  <si>
     <t>Value in rallods</t>
   </si>
   <si>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>relative/percentage change</t>
+  </si>
+  <si>
+    <t>linear or exponential:</t>
   </si>
 </sst>
 </file>
@@ -1214,90 +1214,89 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1311,6 +1310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1368,8 +1370,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2192,8 +2192,18 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4AAF6A0F-9052-4B1C-9B1C-89AE4DCD99AC}">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FB641EB8-ED98-4ABF-95F2-0F24D9CA2C32}" diskRevisions="1" revisionId="5" version="2">
   <header guid="{4AAF6A0F-9052-4B1C-9B1C-89AE4DCD99AC}" dateTime="2023-01-23T15:06:27" maxSheetId="7" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="6">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FB641EB8-ED98-4ABF-95F2-0F24D9CA2C32}" dateTime="2023-02-17T11:16:22" maxSheetId="7" userName="Richard Ketchersid" r:id="rId2" minRId="1" maxRId="3">
     <sheetIdMap count="6">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2210,9 +2220,50 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rdn rId="1" name="_xlchart.v1.0" hidden="1" oldHidden="1"/>
+  <rcc rId="2" sId="3">
+    <oc r="K14" t="inlineStr">
+      <is>
+        <t>Give the formula:</t>
+      </is>
+    </oc>
+    <nc r="K14" t="inlineStr">
+      <is>
+        <t>linear or exponential:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="3" sId="4">
+    <oc r="K14" t="inlineStr">
+      <is>
+        <t>Give the formula:</t>
+      </is>
+    </oc>
+    <nc r="K14" t="inlineStr">
+      <is>
+        <t>linear or exponential:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" action="delete"/>
+  <rdn rId="0" localSheetId="3" customView="1" name="Z_86163F03_5311_4FD3_9F34_A891F9AC9F16_.wvu.Rows" hidden="1" oldHidden="1">
+    <formula>'Puzzle 1'!$35:$35</formula>
+    <oldFormula>'Puzzle 1'!$35:$35</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="4" customView="1" name="Z_86163F03_5311_4FD3_9F34_A891F9AC9F16_.wvu.Rows" hidden="1" oldHidden="1">
+    <formula>'Puzzle 2'!$38:$39</formula>
+    <oldFormula>'Puzzle 2'!$38:$39</oldFormula>
+  </rdn>
+  <rcv guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{4AAF6A0F-9052-4B1C-9B1C-89AE4DCD99AC}" name="Richard Ketchersid" id="-1739526258" dateTime="2023-01-23T15:06:27"/>
+  <userInfo guid="{FB641EB8-ED98-4ABF-95F2-0F24D9CA2C32}" name="Richard Ketchersid" id="-1739564323" dateTime="2023-02-17T11:15:34"/>
 </users>
 </file>
 
@@ -2527,108 +2578,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" thickBot="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1">
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="M4" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="M4" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" ht="15" thickBot="1">
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="66" t="s">
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="68"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="5">
@@ -2643,13 +2694,13 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5">
@@ -2670,19 +2721,19 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.1712204007285916E-2</v>
       </c>
-      <c r="F9" s="60" t="str">
+      <c r="F9" s="64" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 34.82</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="60" t="str">
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="64" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(3.17%) = Q₀∙(1 + 3.17%)</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:16">
@@ -2704,19 +2755,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.0737451669285543E-2</v>
       </c>
-      <c r="F10" s="60" t="str">
+      <c r="F10" s="64" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;ROUND(D10,2)&amp;")"</f>
         <v>Q₂ = Q₁ + 34.82 = Q₀ + 2∙(34.82)</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="60" t="str">
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="64" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(3.07%) = Q₁∙(1 + 3.07%)</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:16">
@@ -2738,19 +2789,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.9820835188927974E-2</v>
       </c>
-      <c r="F11" s="60" t="str">
+      <c r="F11" s="64" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;" = "&amp;B$8&amp;" + "&amp;A11&amp;"∙("&amp;ROUND(D11,2)&amp;")"</f>
         <v>Q₃ = Q₂ + 34.82 = Q₀ + 3∙(34.82)</v>
       </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="60" t="str">
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="64" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(2.98%) = Q₂∙(1 + 2.98%)</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="62"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:16">
@@ -2772,19 +2823,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8957304193070854E-2</v>
       </c>
-      <c r="F12" s="60" t="str">
+      <c r="F12" s="64" t="str">
         <f t="shared" ref="F12:F18" ca="1" si="3">B12&amp;" = "&amp;B11&amp;" + "&amp;ROUND(D12,2)&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;ROUND(D12,2)&amp;")"</f>
         <v>Q₄ = Q₃ + 34.82 = Q₀ + 4∙(34.82)</v>
       </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="60" t="str">
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + Q₃∙(2.9%) = Q₃∙(1 + 2.9%)</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:16">
@@ -2806,19 +2857,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8142376826587379E-2</v>
       </c>
-      <c r="F13" s="60" t="str">
+      <c r="F13" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + 34.82 = Q₀ + 5∙(34.82)</v>
       </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="60" t="str">
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + Q₄∙(2.81%) = Q₄∙(1 + 2.81%)</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="62"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="66"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" customHeight="1">
@@ -2840,19 +2891,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.7372061944815673E-2</v>
       </c>
-      <c r="F14" s="60" t="str">
+      <c r="F14" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + 34.82 = Q₀ + 6∙(34.82)</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="60" t="str">
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + Q₅∙(2.74%) = Q₅∙(1 + 2.74%)</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" customHeight="1">
@@ -2874,19 +2925,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.6642793744070081E-2</v>
       </c>
-      <c r="F15" s="60" t="str">
+      <c r="F15" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + 34.82 = Q₀ + 7∙(34.82)</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="60" t="str">
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + Q₆∙(2.66%) = Q₆∙(1 + 2.66%)</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" customHeight="1">
@@ -2908,19 +2959,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5951376570721552E-2</v>
       </c>
-      <c r="F16" s="60" t="str">
+      <c r="F16" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + 34.82 = Q₀ + 8∙(34.82)</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="60" t="str">
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + Q₇∙(2.6%) = Q₇∙(1 + 2.6%)</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="62"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="66"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2942,19 +2993,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5294938106584564E-2</v>
       </c>
-      <c r="F17" s="60" t="str">
+      <c r="F17" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + 34.82 = Q₀ + 9∙(34.82)</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="60" t="str">
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="64" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + Q₈∙(2.53%) = Q₈∙(1 + 2.53%)</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="62"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="66"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -2976,19 +3027,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.4670889484051051E-2</v>
       </c>
-      <c r="F18" s="60" t="str">
+      <c r="F18" s="64" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₁₀ = Q₉ + 34.82 = Q₀ + 10∙(34.82)</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="60" t="str">
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="64" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(2.47%) = Q₉∙(1 + 2.47%)</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="62"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
@@ -3007,18 +3058,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="60" t="str">
+      <c r="F19" s="64" t="str">
         <f>A19</f>
         <v>⋮</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="60" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="62"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3035,18 +3086,18 @@
       <c r="E20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="63" t="str">
+      <c r="F20" s="82" t="str">
         <f ca="1">B20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;ROUND(D20,2)&amp;")"</f>
         <v>Qₙ = Q₀ + n∙(34.82)</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="63" t="s">
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="84"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
@@ -3058,16 +3109,14 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -3084,14 +3133,16 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M4:O5" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{B7474ABE-EF49-4165-8D07-B721CC234856}"/>
@@ -3119,105 +3170,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="E1" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="68"/>
+      <c r="E1" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="77"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="75"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="80"/>
-      <c r="M3" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
+      <c r="M3" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1">
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="83"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="81"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="77"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="63"/>
       <c r="D7" s="34" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="66" t="s">
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="68"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5">
@@ -3232,14 +3283,14 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5">
@@ -3260,20 +3311,20 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F9" s="84" t="str">
+      <c r="F9" s="86" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 3.82</v>
       </c>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="60" t="str">
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="64" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(0.35%) = Q₀∙(1 + 0.35%)</v>
       </c>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5">
@@ -3294,20 +3345,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F10" s="84" t="str">
+      <c r="F10" s="86" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + 3.83</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="60" t="str">
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="64" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(0.35%) = Q₁∙(1 + 0.35%) = Q₀∙(1 + 0.35%)²</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="66"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5">
@@ -3328,20 +3379,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F11" s="84" t="str">
+      <c r="F11" s="86" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + 3.85</v>
       </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="60" t="str">
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="64" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(0.35%) = Q₂∙(1 + 0.35%) = Q₀∙(1 + 0.35%)³</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="66"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5">
@@ -3362,20 +3413,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F12" s="84" t="str">
+      <c r="F12" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + 3.86</v>
       </c>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="60" t="str">
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="64" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(0.35%) = Q₃∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁴</v>
       </c>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5">
@@ -3396,20 +3447,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F13" s="84" t="str">
+      <c r="F13" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + 3.87</v>
       </c>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="60" t="str">
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="64" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(0.35%) = Q₄∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁵</v>
       </c>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" customHeight="1">
       <c r="A14" s="5">
@@ -3430,20 +3481,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F14" s="84" t="str">
+      <c r="F14" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + 3.89</v>
       </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="60" t="str">
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="64" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(0.35%) = Q₅∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁶</v>
       </c>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" customHeight="1">
       <c r="A15" s="5">
@@ -3464,20 +3515,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F15" s="84" t="str">
+      <c r="F15" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + 3.9</v>
       </c>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="60" t="str">
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="64" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(0.35%) = Q₆∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁷</v>
       </c>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1">
       <c r="A16" s="5">
@@ -3498,20 +3549,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F16" s="84" t="str">
+      <c r="F16" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + 3.92</v>
       </c>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="60" t="str">
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="64" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(0.35%) = Q₇∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁸</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="66"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
@@ -3532,20 +3583,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F17" s="84" t="str">
+      <c r="F17" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + 3.93</v>
       </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="60" t="str">
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="64" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(0.35%) = Q₈∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁹</v>
       </c>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="66"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
@@ -3566,20 +3617,20 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F18" s="84" t="str">
+      <c r="F18" s="86" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + 3.94</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="60" t="str">
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="64" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(0.35%) = Q₉∙(1 + 0.35%) = Q₀∙(1 + 0.35%)¹⁰</v>
       </c>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="66"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
@@ -3597,18 +3648,18 @@
       <c r="E19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="60" t="s">
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="66"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1">
       <c r="A20" s="7" t="s">
@@ -3625,20 +3676,20 @@
         <f ca="1">E18</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F20" s="90" t="str">
+      <c r="F20" s="91" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="87" t="str">
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="88" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + 0.35%)ⁿ</v>
       </c>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="88"/>
-      <c r="M20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="90"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
@@ -3650,6 +3701,23 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="M3:O4"/>
+    <mergeCell ref="I9:M9"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="F12:H12"/>
@@ -3666,23 +3734,6 @@
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I16:M16"/>
     <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="M3:O4"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I11:M11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3:O4" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{D9262481-9EDA-481F-B42B-0C6411D8AE1E}"/>
@@ -3698,7 +3749,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3712,43 +3763,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1"/>
     <row r="2" spans="1:12" ht="16.8" thickBot="1">
-      <c r="F2" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="F2" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-      <c r="K4" s="95" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="K4" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="96"/>
+      <c r="L4" s="98"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
@@ -3757,15 +3808,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
       <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
@@ -3774,15 +3825,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
       <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
@@ -3817,10 +3868,10 @@
     </row>
     <row r="10" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>1</v>
@@ -3837,13 +3888,13 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
@@ -3859,11 +3910,11 @@
       </c>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
       <c r="K12" s="28" t="s">
         <v>67</v>
       </c>
@@ -3890,15 +3941,15 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="39"/>
-      <c r="F14" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="F14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
       <c r="K14" s="29" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="L14" s="44"/>
     </row>
@@ -3912,11 +3963,11 @@
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="39"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="78"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16">
@@ -3928,11 +3979,11 @@
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="39"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17">
@@ -3955,13 +4006,13 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="39"/>
-      <c r="F18" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="F18" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1">
@@ -3974,13 +4025,13 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39"/>
-      <c r="F19" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="F19" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
@@ -3993,13 +4044,13 @@
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39"/>
-      <c r="F20" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="F20" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -4036,30 +4087,30 @@
       <c r="D23" s="41"/>
     </row>
     <row r="35" spans="2:5" hidden="1">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="110" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" hiddenRows="1">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K14" sqref="K14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -4115,7 +4166,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD39"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4130,43 +4181,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1"/>
     <row r="2" spans="1:12" ht="16.8" thickBot="1">
-      <c r="F2" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="F2" s="94" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-      <c r="K4" s="106" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="101"/>
+      <c r="K4" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="107"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="102"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="K5" s="18" t="s">
         <v>56</v>
       </c>
@@ -4175,15 +4226,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="102"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
       <c r="K6" s="20" t="s">
         <v>58</v>
       </c>
@@ -4192,15 +4243,15 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="103"/>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="107"/>
       <c r="K7" s="22" t="s">
         <v>60</v>
       </c>
@@ -4235,7 +4286,7 @@
     </row>
     <row r="10" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
       <c r="A10" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="31" t="s">
         <v>50</v>
@@ -4255,13 +4306,13 @@
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
       <c r="K11" s="27" t="s">
         <v>66</v>
       </c>
@@ -4277,11 +4328,11 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="49"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
       <c r="K12" s="28" t="s">
         <v>67</v>
       </c>
@@ -4309,15 +4360,15 @@
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="F14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="75"/>
       <c r="K14" s="28" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="L14" s="44"/>
     </row>
@@ -4331,11 +4382,11 @@
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="78"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16">
@@ -4347,11 +4398,11 @@
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17">
@@ -4374,13 +4425,13 @@
       </c>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
-      <c r="F18" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
+      <c r="F18" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1">
@@ -4393,13 +4444,13 @@
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
-      <c r="F19" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
+      <c r="F19" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
@@ -4412,13 +4463,13 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="51"/>
-      <c r="F20" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
+      <c r="F20" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:11">
@@ -4455,30 +4506,30 @@
       <c r="D23" s="53"/>
     </row>
     <row r="38" spans="2:5" hidden="1">
-      <c r="B38" s="109" t="s">
+      <c r="B38" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1">
+      <c r="B39" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109" t="s">
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" hidden="1">
-      <c r="B39" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="109" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" hiddenRows="1">
-      <selection activeCell="A38" sqref="A38:XFD39"/>
+      <selection activeCell="K14" sqref="K14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
@@ -6073,54 +6124,54 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="6" spans="3:8">
-      <c r="C6" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
+      <c r="C6" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="108"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 3/ConstantGrowthRate.xlsx
+++ b/144F20/Topic 3/ConstantGrowthRate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{1D47A7CC-3638-4DCA-8525-E80F32652B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{FE07CE70-4AD8-4729-8CEC-9EA745513535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="1092" windowWidth="19800" windowHeight="11256" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
+    <workbookView xWindow="2760" yWindow="1365" windowWidth="24750" windowHeight="14070" xr2:uid="{0E835B87-0F00-4DF3-8488-BA3E1D614520}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Change" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Percent Change</t>
   </si>
   <si>
-    <t>Word with at least five letters:</t>
-  </si>
-  <si>
     <t>Seed</t>
   </si>
   <si>
@@ -187,10 +184,138 @@
   </si>
   <si>
     <t>So the model derived here is the same if we model a fixed growth (per period) or a fixed change (per period). The period can be any fixed amount of time, e.g., year, day, hour, etc.</t>
+  </si>
+  <si>
+    <t>So the model derived here is the same if we model a fixed relative growth rate (per period) or a fixed percentage change (per period). The period can be any fixed amount of time, e.g., year, day, hour, etc.</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Percentage
+Change</t>
+  </si>
+  <si>
+    <t>Is there fixed growth (change) per period, or fixed relative growth (percentage change) per period?</t>
+  </si>
+  <si>
+    <t>You deposite a number of rallods in a bank. The statements for the first 12 periods, in this case quarters, is shown. Decide if there is a fixed change per period, or a fixed percentage change per period. Decide whether a linear or exponential model should be used then write down the model and use it to predict the future value of the account after 9 years.</t>
+  </si>
+  <si>
+    <t>A population of rallods is observed for 12 consecutive periods, in this case semi-anually. Based on the data given decide if there is a fixed change per period, or a fixed percentage change per period. Decide whether a linear or exponential model should be used then write down the model and use it to predict the population after 12 years.</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>If a cell is shaded</t>
+  </si>
+  <si>
+    <t>You should</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Enter a text response</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Enter a number</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Enter an Excel formula</t>
+  </si>
+  <si>
+    <t>Any other color</t>
+  </si>
+  <si>
+    <t>Make no changes</t>
+  </si>
+  <si>
+    <t>change/relative change</t>
+  </si>
+  <si>
+    <t>What is the fixed value?</t>
+  </si>
+  <si>
+    <t>Value in rallods</t>
+  </si>
+  <si>
+    <t>What will the value be at 9 years?</t>
+  </si>
+  <si>
+    <t>What model should be used to predict the population? Give P(t) = population at the end of t periods.</t>
+  </si>
+  <si>
+    <t>How many periods are in 12 years?</t>
+  </si>
+  <si>
+    <t>What will the populaton be at 12 years?</t>
+  </si>
+  <si>
+    <t>How many periods are in 9 years?</t>
+  </si>
+  <si>
+    <t>How many periods per year?</t>
+  </si>
+  <si>
+    <t>Period (quater)</t>
+  </si>
+  <si>
+    <t>Period (half year)</t>
+  </si>
+  <si>
+    <t>aword</t>
+  </si>
+  <si>
+    <t>Enter your name in D1 on the first tab.</t>
+  </si>
+  <si>
+    <t>Video explaining this.
+ Taken from office hours.</t>
+  </si>
+  <si>
+    <t>Percent Change = Relative Change = Relative Growth Rate</t>
+  </si>
+  <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>exponential</t>
+  </si>
+  <si>
+    <t>fixed change</t>
+  </si>
+  <si>
+    <t>relative/percentage change</t>
+  </si>
+  <si>
+    <t>linear or exponential:</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">The model is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linear mode</t>
     </r>
     <r>
       <rPr>
@@ -201,7 +326,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">linear model </t>
+      <t>l Q(t) = Q₀ + r∙t</t>
     </r>
     <r>
       <rPr>
@@ -211,7 +336,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Q(t)</t>
+      <t>, where Q₀ is the initial quantity and r = change per period. This is a straight line with y-intercept = Q₀ and slope = r.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exponential mode</t>
     </r>
     <r>
       <rPr>
@@ -222,7 +364,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = </t>
+      <t>l</t>
     </r>
     <r>
       <rPr>
@@ -232,12 +374,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Q₀ + r∙t, where Q₀ is the initial quantity and r = change per period. This is a straight line with y-intercept = Q₀ and slope = r.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is an </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -248,20 +385,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>exponential model</t>
+      <t>Q(t) = Q₀∙b</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q(t) = Q₀∙b</t>
-    </r>
-    <r>
-      <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -279,131 +407,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> where Q₀ = the initial value (y-intercept) and b = 1 + r, where r = the relative growth rate (per period)</t>
+      <t xml:space="preserve"> where Q₀ = the initial value (y-intercept) and </t>
     </r>
-  </si>
-  <si>
-    <t>So the model derived here is the same if we model a fixed relative growth rate (per period) or a fixed percentage change (per period). The period can be any fixed amount of time, e.g., year, day, hour, etc.</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Percentage
-Change</t>
-  </si>
-  <si>
-    <t>Is there fixed growth (change) per period, or fixed relative growth (percentage change) per period?</t>
-  </si>
-  <si>
-    <t>You deposite a number of rallods in a bank. The statements for the first 12 periods, in this case quarters, is shown. Decide if there is a fixed change per period, or a fixed percentage change per period. Decide whether a linear or exponential model should be used then write down the model and use it to predict the future value of the account after 9 years.</t>
-  </si>
-  <si>
-    <t>A population of rallods is observed for 12 consecutive periods, in this case semi-anually. Based on the data given decide if there is a fixed change per period, or a fixed percentage change per period. Decide whether a linear or exponential model should be used then write down the model and use it to predict the population after 12 years.</t>
-  </si>
-  <si>
-    <t>Legend</t>
-  </si>
-  <si>
-    <t>If a cell is shaded</t>
-  </si>
-  <si>
-    <t>You should</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Enter a text response</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Enter a number</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Enter an Excel formula</t>
-  </si>
-  <si>
-    <t>Any other color</t>
-  </si>
-  <si>
-    <t>Make no changes</t>
-  </si>
-  <si>
-    <t>change/relative change</t>
-  </si>
-  <si>
-    <t>What is the fixed value?</t>
-  </si>
-  <si>
-    <t>Value in rallods</t>
-  </si>
-  <si>
-    <t>What will the value be at 9 years?</t>
-  </si>
-  <si>
-    <t>What model should be used to predict the population? Give P(t) = population at the end of t periods.</t>
-  </si>
-  <si>
-    <t>How many periods are in 12 years?</t>
-  </si>
-  <si>
-    <t>What will the populaton be at 12 years?</t>
-  </si>
-  <si>
-    <t>How many periods are in 9 years?</t>
-  </si>
-  <si>
-    <t>How many periods per year?</t>
-  </si>
-  <si>
-    <t>Period (quater)</t>
-  </si>
-  <si>
-    <t>Period (half year)</t>
-  </si>
-  <si>
-    <t>aword</t>
-  </si>
-  <si>
-    <t>Enter your name in D1 on the first tab.</t>
-  </si>
-  <si>
-    <t>Video explaining this.
- Taken from office hours.</t>
-  </si>
-  <si>
-    <t>Percent Change = Relative Change = Relative Growth Rate</t>
-  </si>
-  <si>
-    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>exponential</t>
-  </si>
-  <si>
-    <t>fixed change</t>
-  </si>
-  <si>
-    <t>relative/percentage change</t>
-  </si>
-  <si>
-    <t>linear or exponential:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b = 1 + r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, where r = the relative growth rate (per period)</t>
+    </r>
+  </si>
+  <si>
+    <t>Name (at least 5 letters) ⇒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,14 +468,6 @@
       <name val="Arial Unicode MS"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,18 +491,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Bradley Hand ITC"/>
-      <family val="4"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Bradley Hand ITC"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1031,9 +1077,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1073,9 +1119,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,11 +1254,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1225,15 +1286,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1279,24 +1331,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,16 +1355,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1367,8 +1407,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2008,8 +2090,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2047,6 +2129,134 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Curved Up 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09084DA4-04AF-2397-DDC2-FE7196D7F310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2095500" y="3629024"/>
+          <a:ext cx="2733675" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Arrow: Curved Up 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF44FA48-A1A1-4EFB-B19F-56AFB56375B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="247650" y="4029075"/>
+          <a:ext cx="4314825" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedUpArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2105,6 +2315,70 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Curved Down 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE695F8A-B5D5-CA60-A3D9-01DA307BCD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="3448049"/>
+          <a:ext cx="4162426" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2157,8 +2431,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4035083" y="3129475"/>
-              <a:ext cx="4572000" cy="2760785"/>
+              <a:off x="3993173" y="3259015"/>
+              <a:ext cx="4572000" cy="2875085"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2189,82 +2463,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FB641EB8-ED98-4ABF-95F2-0F24D9CA2C32}" diskRevisions="1" revisionId="5" version="2">
-  <header guid="{4AAF6A0F-9052-4B1C-9B1C-89AE4DCD99AC}" dateTime="2023-01-23T15:06:27" maxSheetId="7" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FB641EB8-ED98-4ABF-95F2-0F24D9CA2C32}" dateTime="2023-02-17T11:16:22" maxSheetId="7" userName="Richard Ketchersid" r:id="rId2" minRId="1" maxRId="3">
-    <sheetIdMap count="6">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rdn rId="1" name="_xlchart.v1.0" hidden="1" oldHidden="1"/>
-  <rcc rId="2" sId="3">
-    <oc r="K14" t="inlineStr">
-      <is>
-        <t>Give the formula:</t>
-      </is>
-    </oc>
-    <nc r="K14" t="inlineStr">
-      <is>
-        <t>linear or exponential:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="4">
-    <oc r="K14" t="inlineStr">
-      <is>
-        <t>Give the formula:</t>
-      </is>
-    </oc>
-    <nc r="K14" t="inlineStr">
-      <is>
-        <t>linear or exponential:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" action="delete"/>
-  <rdn rId="0" localSheetId="3" customView="1" name="Z_86163F03_5311_4FD3_9F34_A891F9AC9F16_.wvu.Rows" hidden="1" oldHidden="1">
-    <formula>'Puzzle 1'!$35:$35</formula>
-    <oldFormula>'Puzzle 1'!$35:$35</oldFormula>
-  </rdn>
-  <rdn rId="0" localSheetId="4" customView="1" name="Z_86163F03_5311_4FD3_9F34_A891F9AC9F16_.wvu.Rows" hidden="1" oldHidden="1">
-    <formula>'Puzzle 2'!$38:$39</formula>
-    <oldFormula>'Puzzle 2'!$38:$39</oldFormula>
-  </rdn>
-  <rcv guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
-  <userInfo guid="{4AAF6A0F-9052-4B1C-9B1C-89AE4DCD99AC}" name="Richard Ketchersid" id="-1739526258" dateTime="2023-01-23T15:06:27"/>
-  <userInfo guid="{FB641EB8-ED98-4ABF-95F2-0F24D9CA2C32}" name="Richard Ketchersid" id="-1739564323" dateTime="2023-02-17T11:15:34"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2567,126 +2765,126 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" thickBot="1">
-      <c r="A1" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="70" t="s">
+    <row r="1" spans="1:16" ht="21.75" thickBot="1">
+      <c r="A1" s="120" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="E2" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="E2" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1">
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="M4" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="114"/>
+    </row>
+    <row r="4" spans="1:16" ht="20.25" customHeight="1" thickBot="1">
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="117"/>
+      <c r="M4" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="E5" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
+      <c r="E5" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="111"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1">
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="81"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1">
-      <c r="A7" s="34" t="s">
+    <row r="6" spans="1:16" ht="21.75" customHeight="1" thickBot="1">
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="117"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
+      <c r="F7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="5">
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10">
         <f ca="1">MOD(Sheet2!B12,1000)+1000</f>
@@ -2694,20 +2892,20 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11">
         <f ca="1">C8+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2721,19 +2919,19 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.1712204007285916E-2</v>
       </c>
-      <c r="F9" s="64" t="str">
+      <c r="F9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 34.82</v>
       </c>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="64" t="str">
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(3.17%) = Q₀∙(1 + 3.17%)</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="66"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:16">
@@ -2741,7 +2939,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11">
         <f ca="1">C9+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2755,19 +2953,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.0737451669285543E-2</v>
       </c>
-      <c r="F10" s="64" t="str">
+      <c r="F10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;" = "&amp;B$8&amp;" + "&amp;A10&amp;"∙("&amp;ROUND(D10,2)&amp;")"</f>
         <v>Q₂ = Q₁ + 34.82 = Q₀ + 2∙(34.82)</v>
       </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="64" t="str">
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)"</f>
         <v>Q₂ = Q₁ + Q₁∙(3.07%) = Q₁∙(1 + 3.07%)</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:16">
@@ -2775,7 +2973,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11">
         <f ca="1">C10+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2789,19 +2987,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.9820835188927974E-2</v>
       </c>
-      <c r="F11" s="64" t="str">
+      <c r="F11" s="60" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;" = "&amp;B$8&amp;" + "&amp;A11&amp;"∙("&amp;ROUND(D11,2)&amp;")"</f>
         <v>Q₃ = Q₂ + 34.82 = Q₀ + 3∙(34.82)</v>
       </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="64" t="str">
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="60" t="str">
         <f t="shared" ref="I11:I17" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)"</f>
         <v>Q₃ = Q₂ + Q₂∙(2.98%) = Q₂∙(1 + 2.98%)</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:16">
@@ -2809,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="11">
         <f ca="1">C11+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2823,19 +3021,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8957304193070854E-2</v>
       </c>
-      <c r="F12" s="64" t="str">
+      <c r="F12" s="60" t="str">
         <f t="shared" ref="F12:F18" ca="1" si="3">B12&amp;" = "&amp;B11&amp;" + "&amp;ROUND(D12,2)&amp;" = "&amp;B$8&amp;" + "&amp;A12&amp;"∙("&amp;ROUND(D12,2)&amp;")"</f>
         <v>Q₄ = Q₃ + 34.82 = Q₀ + 4∙(34.82)</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="64" t="str">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + Q₃∙(2.9%) = Q₃∙(1 + 2.9%)</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:16">
@@ -2843,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11">
         <f ca="1">C12+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2857,19 +3055,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.8142376826587379E-2</v>
       </c>
-      <c r="F13" s="64" t="str">
+      <c r="F13" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₅ = Q₄ + 34.82 = Q₀ + 5∙(34.82)</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="64" t="str">
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + Q₄∙(2.81%) = Q₄∙(1 + 2.81%)</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" customHeight="1">
@@ -2877,7 +3075,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11">
         <f ca="1">C13+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2891,19 +3089,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.7372061944815673E-2</v>
       </c>
-      <c r="F14" s="64" t="str">
+      <c r="F14" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₆ = Q₅ + 34.82 = Q₀ + 6∙(34.82)</v>
       </c>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="64" t="str">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + Q₅∙(2.74%) = Q₅∙(1 + 2.74%)</v>
       </c>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="66"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" customHeight="1">
@@ -2911,7 +3109,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11">
         <f ca="1">C14+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2925,19 +3123,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.6642793744070081E-2</v>
       </c>
-      <c r="F15" s="64" t="str">
+      <c r="F15" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₇ = Q₆ + 34.82 = Q₀ + 7∙(34.82)</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="64" t="str">
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + Q₆∙(2.66%) = Q₆∙(1 + 2.66%)</v>
       </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="66"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" customHeight="1">
@@ -2945,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="11">
         <f ca="1">C15+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2959,19 +3157,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5951376570721552E-2</v>
       </c>
-      <c r="F16" s="64" t="str">
+      <c r="F16" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₈ = Q₇ + 34.82 = Q₀ + 8∙(34.82)</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="64" t="str">
+      <c r="G16" s="61"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + Q₇∙(2.6%) = Q₇∙(1 + 2.6%)</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="66"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
@@ -2979,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="11">
         <f ca="1">C16+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -2993,19 +3191,19 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.5294938106584564E-2</v>
       </c>
-      <c r="F17" s="64" t="str">
+      <c r="F17" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₉ = Q₈ + 34.82 = Q₀ + 9∙(34.82)</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="64" t="str">
+      <c r="G17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="60" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + Q₈∙(2.53%) = Q₈∙(1 + 2.53%)</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="66"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
@@ -3013,7 +3211,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="11">
         <f ca="1">C17+ROUND(SIGN(Sheet2!B$14-Sheet2!B$15)*100*Sheet2!D$15,2)</f>
@@ -3027,96 +3225,98 @@
         <f t="shared" ca="1" si="1"/>
         <v>2.4670889484051051E-2</v>
       </c>
-      <c r="F18" s="64" t="str">
+      <c r="F18" s="60" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Q₁₀ = Q₉ + 34.82 = Q₀ + 10∙(34.82)</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="64" t="str">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="60" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(2.47%) = Q₉∙(1 + 2.47%)</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="66"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="64" t="str">
+        <v>42</v>
+      </c>
+      <c r="F19" s="60" t="str">
         <f>A19</f>
         <v>⋮</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="G19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="14">
+      <c r="D20" s="118">
         <f ca="1">D18</f>
         <v>34.819999999999936</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="82" t="str">
+        <v>41</v>
+      </c>
+      <c r="F20" s="87" t="str">
         <f ca="1">B20&amp;" = "&amp;B$8&amp;" + "&amp;A20&amp;"∙("&amp;ROUND(D20,2)&amp;")"</f>
         <v>Qₙ = Q₀ + n∙(34.82)</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="84"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
   <customSheetViews>
     <customSheetView guid="{86163F03-5311-4FD3-9F34-A891F9AC9F16}">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F23" sqref="F23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="34">
-    <mergeCell ref="M4:O5"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="E2:K4"/>
+    <mergeCell ref="E5:K6"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I7:L7"/>
@@ -3133,16 +3333,14 @@
     <mergeCell ref="I19:L19"/>
     <mergeCell ref="I20:L20"/>
     <mergeCell ref="I8:L8"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K4"/>
-    <mergeCell ref="E5:K6"/>
+    <mergeCell ref="M4:O5"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M4:O5" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{B7474ABE-EF49-4165-8D07-B721CC234856}"/>
@@ -3158,124 +3356,124 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1">
-      <c r="E1" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="63"/>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E1" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:17">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
+      <c r="E2" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1">
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78"/>
-      <c r="M3" s="85" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="M3" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="81"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E4" s="81"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="83"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="E5" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="81"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
-      <c r="A7" s="34" t="s">
+      <c r="E5" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1">
+      <c r="E6" s="81"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="83"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
+      <c r="A7" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="34" t="s">
+      <c r="B7" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
+      <c r="F7" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5">
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10">
         <f ca="1">MOD(Sheet2!B12,1000)+1000</f>
@@ -3283,21 +3481,21 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="66"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11">
         <f ca="1">C8*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3311,27 +3509,27 @@
         <f t="shared" ref="E9:E18" ca="1" si="1">C9/C8-1</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F9" s="86" t="str">
+      <c r="F9" s="84" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;ROUND(D9,2)</f>
         <v>Q₁ = Q₀ + 3.82</v>
       </c>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="64" t="str">
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="60" t="str">
         <f ca="1">B9&amp;" = "&amp;B8&amp;" + "&amp;B8&amp;"∙("&amp;ROUND(E9*100,2)&amp;"%) = "&amp;B8&amp;"∙(1 + "&amp;ROUND(E9*100,2)&amp;"%)"</f>
         <v>Q₁ = Q₀ + Q₀∙(0.35%) = Q₀∙(1 + 0.35%)</v>
       </c>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="11">
         <f ca="1">C9*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3345,27 +3543,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F10" s="86" t="str">
+      <c r="F10" s="84" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;ROUND(D10,2)&amp;""</f>
         <v>Q₂ = Q₁ + 3.83</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="64" t="str">
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="60" t="str">
         <f ca="1">B10&amp;" = "&amp;B9&amp;" + "&amp;B9&amp;"∙("&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B9&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E10*100,2)&amp;"%)²"</f>
         <v>Q₂ = Q₁ + Q₁∙(0.35%) = Q₁∙(1 + 0.35%) = Q₀∙(1 + 0.35%)²</v>
       </c>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5">
         <v>3</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="11">
         <f ca="1">C10*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3379,27 +3577,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F11" s="86" t="str">
+      <c r="F11" s="84" t="str">
         <f t="shared" ref="F11:F18" ca="1" si="2">B11&amp;" = "&amp;B10&amp;" + "&amp;ROUND(D11,2)&amp;""</f>
         <v>Q₃ = Q₂ + 3.85</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="64" t="str">
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="60" t="str">
         <f ca="1">B11&amp;" = "&amp;B10&amp;" + "&amp;B10&amp;"∙("&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B10&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E11*100,2)&amp;"%)³"</f>
         <v>Q₃ = Q₂ + Q₂∙(0.35%) = Q₂∙(1 + 0.35%) = Q₀∙(1 + 0.35%)³</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="11">
         <f ca="1">C11*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3413,27 +3611,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F12" s="86" t="str">
+      <c r="F12" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₄ = Q₃ + 3.86</v>
       </c>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="64" t="str">
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="60" t="str">
         <f ca="1">B12&amp;" = "&amp;B11&amp;" + "&amp;B11&amp;"∙("&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B11&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E12*100,2)&amp;"%)⁴"</f>
         <v>Q₄ = Q₃ + Q₃∙(0.35%) = Q₃∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁴</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5">
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="11">
         <f ca="1">C12*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3447,27 +3645,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F13" s="86" t="str">
+      <c r="F13" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₅ = Q₄ + 3.87</v>
       </c>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="64" t="str">
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="60" t="str">
         <f ca="1">B13&amp;" = "&amp;B12&amp;" + "&amp;B12&amp;"∙("&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B12&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E13*100,2)&amp;"%)⁵"</f>
         <v>Q₅ = Q₄ + Q₄∙(0.35%) = Q₄∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁵</v>
       </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="1:17" ht="15.6" customHeight="1">
       <c r="A14" s="5">
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="11">
         <f ca="1">C13*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3481,27 +3679,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F14" s="86" t="str">
+      <c r="F14" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₆ = Q₅ + 3.89</v>
       </c>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="64" t="str">
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="60" t="str">
         <f ca="1">B14&amp;" = "&amp;B13&amp;" + "&amp;B13&amp;"∙("&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B13&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E14*100,2)&amp;"%)⁶"</f>
         <v>Q₆ = Q₅ + Q₅∙(0.35%) = Q₅∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁶</v>
       </c>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="1:17" ht="15.6" customHeight="1">
       <c r="A15" s="5">
         <v>7</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11">
         <f ca="1">C14*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3515,27 +3713,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F15" s="86" t="str">
+      <c r="F15" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₇ = Q₆ + 3.9</v>
       </c>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="64" t="str">
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="60" t="str">
         <f ca="1">B15&amp;" = "&amp;B14&amp;" + "&amp;B14&amp;"∙("&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B14&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E15*100,2)&amp;"%)⁷"</f>
         <v>Q₇ = Q₆ + Q₆∙(0.35%) = Q₆∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁷</v>
       </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="1:17" ht="15.6" customHeight="1">
       <c r="A16" s="5">
         <v>8</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="11">
         <f ca="1">C15*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3549,27 +3747,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F16" s="86" t="str">
+      <c r="F16" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₈ = Q₇ + 3.92</v>
       </c>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="64" t="str">
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="60" t="str">
         <f ca="1">B16&amp;" = "&amp;B15&amp;" + "&amp;B15&amp;"∙("&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B15&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E16*100,2)&amp;"%)⁸"</f>
         <v>Q₈ = Q₇ + Q₇∙(0.35%) = Q₇∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁸</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="66"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:13" ht="15.6" customHeight="1">
       <c r="A17" s="5">
         <v>9</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="11">
         <f ca="1">C16*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3583,27 +3781,27 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F17" s="86" t="str">
+      <c r="F17" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₉ = Q₈ + 3.93</v>
       </c>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="64" t="str">
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="60" t="str">
         <f ca="1">B17&amp;" = "&amp;B16&amp;" + "&amp;B16&amp;"∙("&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B16&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E17*100,2)&amp;"%)⁹"</f>
         <v>Q₉ = Q₈ + Q₈∙(0.35%) = Q₈∙(1 + 0.35%) = Q₀∙(1 + 0.35%)⁹</v>
       </c>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="66"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1">
       <c r="A18" s="5">
         <v>10</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="11">
         <f ca="1">C17*ROUND(1+SIGN(Sheet2!B$14-Sheet2!B$15)*Sheet2!D$15%,5)</f>
@@ -3617,79 +3815,79 @@
         <f t="shared" ca="1" si="1"/>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F18" s="86" t="str">
+      <c r="F18" s="84" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>Q₁₀ = Q₉ + 3.94</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="64" t="str">
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="60" t="str">
         <f ca="1">B18&amp;" = "&amp;B17&amp;" + "&amp;B17&amp;"∙("&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B17&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%) = "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E18*100,2)&amp;"%)¹⁰"</f>
         <v>Q₁₀ = Q₉ + Q₉∙(0.35%) = Q₉∙(1 + 0.35%) = Q₀∙(1 + 0.35%)¹⁰</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="66"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="66"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1">
+        <v>42</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1">
       <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="15">
+        <v>41</v>
+      </c>
+      <c r="E20" s="119">
         <f ca="1">E18</f>
         <v>3.4799999999999276E-3</v>
       </c>
-      <c r="F20" s="91" t="str">
+      <c r="F20" s="90" t="str">
         <f>B20&amp;" = "&amp;B18&amp;" + "&amp;D20</f>
         <v>Qₙ = Q₁₀ + ???</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="88" t="str">
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="87" t="str">
         <f ca="1">B20&amp;" =  "&amp;B$8&amp;"∙(1 + "&amp;ROUND(E20*100,2)&amp;"%)ⁿ"</f>
         <v>Qₙ =  Q₀∙(1 + 0.35%)ⁿ</v>
       </c>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="90"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="89"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0"/>
@@ -3701,6 +3899,23 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="33">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I20:M20"/>
     <mergeCell ref="I11:M11"/>
     <mergeCell ref="I18:M18"/>
     <mergeCell ref="I19:M19"/>
@@ -3717,23 +3932,6 @@
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="M3:O4"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I16:M16"/>
-    <mergeCell ref="I17:M17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M3:O4" r:id="rId2" display="https://youtu.be/HoCMAoenzDw" xr:uid="{D9262481-9EDA-481F-B42B-0C6411D8AE1E}"/>
@@ -3749,361 +3947,361 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1"/>
-    <row r="2" spans="1:12" ht="16.8" thickBot="1">
-      <c r="F2" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1"/>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:12" ht="18.75" thickBot="1">
+      <c r="F2" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="96"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
+      <c r="K5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
-      <c r="K4" s="97" t="s">
+      <c r="L5" s="18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
+      <c r="K6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="98"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
-      <c r="K5" s="18" t="s">
+      <c r="L6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="19" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
+      <c r="K7" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
-      <c r="K6" s="20" t="s">
+      <c r="L7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="21" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="K8" s="34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
-      <c r="K7" s="22" t="s">
+      <c r="L8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="21" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="K9" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="K8" s="35" t="s">
+      <c r="L9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="K9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="25" t="s">
+    </row>
+    <row r="10" spans="1:12" s="15" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
+      <c r="D10" s="56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="2">
         <v>0</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+      <c r="F11" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1115.0123168945313</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1166.2781114695222</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1219.9009936332179</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
-      <c r="F14" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="44"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="F14" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1275.9893370477628</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1334.6564981560439</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1396.0210452789045</v>
       </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1">
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1460.2069982457379</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="F18" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="F18" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1527.3440790427662</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="F19" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="F19" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1597.5679739855711</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="F20" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="43"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="F20" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B20*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B20+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1671.0206079457353</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B21*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B21+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1747.8504311858183</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="46">
         <f ca="1">IF(Sheet2!C$28=0,B22*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28/10),B22+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1828.2127193823683</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
     </row>
     <row r="35" spans="2:5" hidden="1">
-      <c r="B35" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60" t="s">
+      <c r="B35" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="58" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60" t="s">
-        <v>83</v>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4169,360 +4367,360 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1"/>
-    <row r="2" spans="1:12" ht="16.8" thickBot="1">
-      <c r="F2" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1"/>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:12" ht="18.75" thickBot="1">
+      <c r="F2" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:12" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="107"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="102"/>
+      <c r="K5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="101"/>
-      <c r="K4" s="108" t="s">
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="102"/>
+      <c r="K6" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="109"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
-      <c r="K5" s="18" t="s">
+      <c r="L6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="19" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="A7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
+      <c r="K7" s="21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="104"/>
-      <c r="K6" s="20" t="s">
+      <c r="L7" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="21" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="K8" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="105"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
-      <c r="K7" s="22" t="s">
+      <c r="L8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="21" t="s">
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1">
+      <c r="K9" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="K8" s="23" t="s">
+      <c r="L9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1">
-      <c r="K9" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="16" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="32" t="s">
+    </row>
+    <row r="10" spans="1:12" s="15" customFormat="1" ht="30.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="15" thickBot="1">
+      <c r="D10" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A11" s="2">
         <v>0</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <f ca="1">MOD(Sheet2!B28,1000)+1000</f>
         <v>1066</v>
       </c>
-      <c r="F11" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="42"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+      <c r="F11" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B11*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B11+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1139.42529296875</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="42"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B12*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B12+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1212.8505859375</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.4" customHeight="1" thickBot="1">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.45" customHeight="1" thickBot="1">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B13*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B13+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1286.27587890625</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="44"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B14*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B14+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1359.701171875</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B15*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B15+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1433.12646484375</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="81"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B16*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B16+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1506.5517578125</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="47">
+      <c r="B18" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B17*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B17+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1579.97705078125</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="F18" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="45"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="F18" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="47">
+      <c r="B19" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B18*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B18+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1653.40234375</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="F19" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="F19" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="42"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B19*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B19+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1726.82763671875</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="F20" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="43"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="F20" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B20*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B20+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1800.2529296875</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B21*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B21+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1873.67822265625</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="46">
         <f ca="1">IF(Sheet2!C$28=1,B22*(1+SIGN(Sheet2!C$33-1/2)*Sheet2!D$28%),B22+SIGN(Sheet2!C$33-1/2)*100*Sheet2!D$26)</f>
         <v>1947.103515625</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
     </row>
     <row r="38" spans="2:5" hidden="1">
-      <c r="B38" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59" t="s">
+      <c r="B38" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1">
+      <c r="B39" s="57" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" hidden="1">
-      <c r="B39" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-      <c r="E39" s="59" t="s">
-        <v>83</v>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4587,7 +4785,7 @@
       <selection activeCell="F35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -5216,7 +5414,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <f ca="1">MOD(PRODUCT(E6:E10),F13)</f>
@@ -5279,7 +5477,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <f ca="1">MOD(B11*F11+F12,F13)</f>
@@ -5354,7 +5552,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" ref="B13:B33" ca="1" si="3">MOD(B12*F$11+F$12,F$13)</f>
@@ -5429,7 +5627,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5501,7 +5699,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5573,7 +5771,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5645,7 +5843,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5717,7 +5915,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5738,7 +5936,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5759,7 +5957,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5780,7 +5978,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5801,7 +5999,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5823,7 +6021,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5845,7 +6043,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5867,7 +6065,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5889,7 +6087,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5911,7 +6109,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5933,7 +6131,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5955,7 +6153,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5977,7 +6175,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -5999,7 +6197,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6021,7 +6219,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6043,7 +6241,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -6121,57 +6319,57 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="3:8">
-      <c r="C6" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
+      <c r="C6" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="108"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
     </row>
   </sheetData>
   <customSheetViews>
